--- a/fuentes/contenidos/grado08/guion05/Escaleta_LE_08_05_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion05/Escaleta_LE_08_05_CO.xlsx
@@ -909,9 +909,6 @@
     <t>Recurso M101A-04</t>
   </si>
   <si>
-    <t>Recurso M101A-05</t>
-  </si>
-  <si>
     <t>Recurso F6B-01</t>
   </si>
   <si>
@@ -1000,6 +997,9 @@
   </si>
   <si>
     <t xml:space="preserve">A partir de la observación de un video, los estudiantes deben ordenar oraciones simples de acuerdo a la secuencia de este. Video titulado El Anarquismo. Tomado de: CS_10_04, La sociedad industrial y sus ideologías, El anarquismo, CIENCIAS SOCIALES, GEOGRAFÍA E HISTORIA. </t>
+  </si>
+  <si>
+    <t>Recurso M4A-01</t>
   </si>
 </sst>
 </file>
@@ -1322,6 +1322,33 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1332,12 +1359,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1378,27 +1399,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1706,9 +1706,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T40" sqref="T40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1737,94 +1737,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="17" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="56" t="s">
         <v>198</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="63" t="s">
+      <c r="M1" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="63"/>
-      <c r="O1" s="51" t="s">
+      <c r="N1" s="70"/>
+      <c r="O1" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="51" t="s">
+      <c r="P1" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="Q1" s="66" t="s">
+      <c r="Q1" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="70" t="s">
+      <c r="R1" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="66" t="s">
+      <c r="S1" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="68" t="s">
+      <c r="T1" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="66" t="s">
+      <c r="U1" s="50" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="17" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="58"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="65"/>
       <c r="M2" s="14" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="67"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="51"/>
     </row>
     <row r="3" spans="1:21" ht="32.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -1864,7 +1864,7 @@
         <v>36</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P3" s="20" t="s">
         <v>19</v>
@@ -1878,7 +1878,7 @@
       <c r="S3" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="T3" s="72" t="s">
+      <c r="T3" s="47" t="s">
         <v>265</v>
       </c>
       <c r="U3" s="34" t="s">
@@ -1937,7 +1937,7 @@
       <c r="S4" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="T4" s="72" t="s">
+      <c r="T4" s="47" t="s">
         <v>267</v>
       </c>
       <c r="U4" s="34" t="s">
@@ -1982,7 +1982,7 @@
         <v>49</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P5" s="24" t="s">
         <v>19</v>
@@ -1996,7 +1996,7 @@
       <c r="S5" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="T5" s="72" t="s">
+      <c r="T5" s="47" t="s">
         <v>268</v>
       </c>
       <c r="U5" s="34" t="s">
@@ -2019,7 +2019,7 @@
       <c r="E6" s="22"/>
       <c r="F6" s="23"/>
       <c r="G6" s="26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H6" s="38">
         <v>4</v>
@@ -2041,7 +2041,7 @@
         <v>27</v>
       </c>
       <c r="O6" s="23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P6" s="24" t="s">
         <v>19</v>
@@ -2055,7 +2055,7 @@
       <c r="S6" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="T6" s="72" t="s">
+      <c r="T6" s="47" t="s">
         <v>269</v>
       </c>
       <c r="U6" s="34" t="s">
@@ -2114,7 +2114,7 @@
       <c r="S7" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="T7" s="72" t="s">
+      <c r="T7" s="47" t="s">
         <v>270</v>
       </c>
       <c r="U7" s="34" t="s">
@@ -2159,7 +2159,7 @@
         <v>120</v>
       </c>
       <c r="O8" s="23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P8" s="24" t="s">
         <v>19</v>
@@ -2173,7 +2173,7 @@
       <c r="S8" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="T8" s="72" t="s">
+      <c r="T8" s="47" t="s">
         <v>271</v>
       </c>
       <c r="U8" s="34" t="s">
@@ -2236,7 +2236,7 @@
       <c r="S9" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="T9" s="72" t="s">
+      <c r="T9" s="47" t="s">
         <v>272</v>
       </c>
       <c r="U9" s="34" t="s">
@@ -2285,7 +2285,7 @@
         <v>28</v>
       </c>
       <c r="O10" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P10" s="24" t="s">
         <v>19</v>
@@ -2299,7 +2299,7 @@
       <c r="S10" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="T10" s="72" t="s">
+      <c r="T10" s="47" t="s">
         <v>273</v>
       </c>
       <c r="U10" s="34" t="s">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="N11" s="6"/>
       <c r="O11" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P11" s="24" t="s">
         <v>19</v>
@@ -2362,7 +2362,7 @@
       <c r="S11" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="T11" s="72" t="s">
+      <c r="T11" s="47" t="s">
         <v>276</v>
       </c>
       <c r="U11" s="34" t="s">
@@ -2398,7 +2398,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>20</v>
@@ -2425,7 +2425,7 @@
       <c r="S12" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="T12" s="72" t="s">
+      <c r="T12" s="47" t="s">
         <v>278</v>
       </c>
       <c r="U12" s="34" t="s">
@@ -2474,7 +2474,7 @@
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="46" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P13" s="24" t="s">
         <v>19</v>
@@ -2488,7 +2488,7 @@
       <c r="S13" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="T13" s="72" t="s">
+      <c r="T13" s="47" t="s">
         <v>279</v>
       </c>
       <c r="U13" s="34" t="s">
@@ -2537,7 +2537,7 @@
         <v>44</v>
       </c>
       <c r="O14" s="23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P14" s="24" t="s">
         <v>20</v>
@@ -2551,7 +2551,7 @@
       <c r="S14" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="T14" s="72" t="s">
+      <c r="T14" s="47" t="s">
         <v>280</v>
       </c>
       <c r="U14" s="34" t="s">
@@ -2612,7 +2612,7 @@
       <c r="S15" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="T15" s="72" t="s">
+      <c r="T15" s="47" t="s">
         <v>281</v>
       </c>
       <c r="U15" s="34" t="s">
@@ -2659,7 +2659,7 @@
       </c>
       <c r="N16" s="6"/>
       <c r="O16" s="23" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P16" s="24" t="s">
         <v>19</v>
@@ -2673,8 +2673,8 @@
       <c r="S16" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="T16" s="72" t="s">
-        <v>285</v>
+      <c r="T16" s="47" t="s">
+        <v>284</v>
       </c>
       <c r="U16" s="34" t="s">
         <v>277</v>
@@ -2732,7 +2732,7 @@
       <c r="S17" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="T17" s="72" t="s">
+      <c r="T17" s="47" t="s">
         <v>144</v>
       </c>
       <c r="U17" s="34" t="s">
@@ -2791,7 +2791,7 @@
       <c r="S18" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="T18" s="72" t="s">
+      <c r="T18" s="47" t="s">
         <v>150</v>
       </c>
       <c r="U18" s="34" t="s">
@@ -2850,7 +2850,7 @@
       <c r="S19" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="T19" s="72" t="s">
+      <c r="T19" s="47" t="s">
         <v>152</v>
       </c>
       <c r="U19" s="34" t="s">
@@ -2909,7 +2909,7 @@
       <c r="S20" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="T20" s="72" t="s">
+      <c r="T20" s="47" t="s">
         <v>148</v>
       </c>
       <c r="U20" s="34" t="s">
@@ -2934,7 +2934,7 @@
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H21" s="24">
         <v>19</v>
@@ -2968,7 +2968,7 @@
       <c r="S21" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="T21" s="72" t="s">
+      <c r="T21" s="47" t="s">
         <v>147</v>
       </c>
       <c r="U21" s="34" t="s">
@@ -3025,7 +3025,7 @@
       <c r="S22" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="T22" s="72" t="s">
+      <c r="T22" s="47" t="s">
         <v>168</v>
       </c>
       <c r="U22" s="34" t="s">
@@ -3082,7 +3082,7 @@
       <c r="S23" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="T23" s="72" t="s">
+      <c r="T23" s="47" t="s">
         <v>153</v>
       </c>
       <c r="U23" s="34" t="s">
@@ -3139,7 +3139,7 @@
       <c r="S24" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="T24" s="72" t="s">
+      <c r="T24" s="47" t="s">
         <v>159</v>
       </c>
       <c r="U24" s="34" t="s">
@@ -3171,7 +3171,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>19</v>
@@ -3196,7 +3196,7 @@
       <c r="S25" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="T25" s="72" t="s">
+      <c r="T25" s="47" t="s">
         <v>162</v>
       </c>
       <c r="U25" s="34" t="s">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="F26" s="23"/>
       <c r="G26" s="26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H26" s="24">
         <v>24</v>
@@ -3243,7 +3243,7 @@
         <v>120</v>
       </c>
       <c r="O26" s="43" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P26" s="24" t="s">
         <v>19</v>
@@ -3257,7 +3257,7 @@
       <c r="S26" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="T26" s="72" t="s">
+      <c r="T26" s="47" t="s">
         <v>166</v>
       </c>
       <c r="U26" s="34" t="s">
@@ -3318,7 +3318,7 @@
       <c r="S27" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="T27" s="72" t="s">
+      <c r="T27" s="47" t="s">
         <v>173</v>
       </c>
       <c r="U27" s="34" t="s">
@@ -3379,8 +3379,8 @@
       <c r="S28" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="T28" s="72" t="s">
-        <v>286</v>
+      <c r="T28" s="47" t="s">
+        <v>285</v>
       </c>
       <c r="U28" s="34" t="s">
         <v>266</v>
@@ -3440,8 +3440,8 @@
       <c r="S29" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="T29" s="72" t="s">
-        <v>287</v>
+      <c r="T29" s="47" t="s">
+        <v>286</v>
       </c>
       <c r="U29" s="34" t="s">
         <v>266</v>
@@ -3501,7 +3501,7 @@
       <c r="S30" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="T30" s="72" t="s">
+      <c r="T30" s="47" t="s">
         <v>282</v>
       </c>
       <c r="U30" s="34" t="s">
@@ -3562,8 +3562,8 @@
       <c r="S31" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="T31" s="72" t="s">
-        <v>288</v>
+      <c r="T31" s="47" t="s">
+        <v>287</v>
       </c>
       <c r="U31" s="34" t="s">
         <v>266</v>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="N32" s="6"/>
       <c r="O32" s="23" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P32" s="24" t="s">
         <v>19</v>
@@ -3623,7 +3623,7 @@
       <c r="S32" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="T32" s="72" t="s">
+      <c r="T32" s="47" t="s">
         <v>177</v>
       </c>
       <c r="U32" s="34" t="s">
@@ -3670,7 +3670,7 @@
         <v>120</v>
       </c>
       <c r="O33" s="23" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P33" s="24" t="s">
         <v>19</v>
@@ -3684,7 +3684,7 @@
       <c r="S33" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="T33" s="72" t="s">
+      <c r="T33" s="47" t="s">
         <v>283</v>
       </c>
       <c r="U33" s="34" t="s">
@@ -3716,7 +3716,7 @@
         <v>20</v>
       </c>
       <c r="J34" s="27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>20</v>
@@ -3743,8 +3743,8 @@
       <c r="S34" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="T34" s="72" t="s">
-        <v>289</v>
+      <c r="T34" s="47" t="s">
+        <v>288</v>
       </c>
       <c r="U34" s="34" t="s">
         <v>266</v>
@@ -3775,7 +3775,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>20</v>
@@ -3788,7 +3788,7 @@
         <v>47</v>
       </c>
       <c r="O35" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P35" s="24" t="s">
         <v>19</v>
@@ -3802,8 +3802,8 @@
       <c r="S35" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="T35" s="72" t="s">
-        <v>290</v>
+      <c r="T35" s="47" t="s">
+        <v>289</v>
       </c>
       <c r="U35" s="34" t="s">
         <v>266</v>
@@ -3861,8 +3861,8 @@
       <c r="S36" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="T36" s="72" t="s">
-        <v>291</v>
+      <c r="T36" s="47" t="s">
+        <v>290</v>
       </c>
       <c r="U36" s="34" t="s">
         <v>266</v>
@@ -3920,8 +3920,8 @@
       <c r="S37" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="T37" s="72" t="s">
-        <v>292</v>
+      <c r="T37" s="47" t="s">
+        <v>291</v>
       </c>
       <c r="U37" s="34" t="s">
         <v>266</v>
@@ -3979,8 +3979,8 @@
       <c r="S38" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="T38" s="72" t="s">
-        <v>293</v>
+      <c r="T38" s="47" t="s">
+        <v>292</v>
       </c>
       <c r="U38" s="34" t="s">
         <v>266</v>
@@ -4026,7 +4026,7 @@
       <c r="Q39" s="34"/>
       <c r="R39" s="35"/>
       <c r="S39" s="36"/>
-      <c r="T39" s="72"/>
+      <c r="T39" s="47"/>
       <c r="U39" s="34"/>
     </row>
     <row r="40" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -4064,7 +4064,7 @@
       </c>
       <c r="M40" s="6"/>
       <c r="N40" s="6" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="O40" s="23" t="s">
         <v>257</v>
@@ -4081,8 +4081,8 @@
       <c r="S40" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="T40" s="72" t="s">
-        <v>284</v>
+      <c r="T40" s="47" t="s">
+        <v>314</v>
       </c>
       <c r="U40" s="34" t="s">
         <v>266</v>
@@ -4140,8 +4140,8 @@
       <c r="S41" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="T41" s="72" t="s">
-        <v>294</v>
+      <c r="T41" s="47" t="s">
+        <v>293</v>
       </c>
       <c r="U41" s="34" t="s">
         <v>266</v>
@@ -6141,12 +6141,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -6161,6 +6155,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion05/Escaleta_LE_08_05_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion05/Escaleta_LE_08_05_CO.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="313">
   <si>
     <t>Asignatura</t>
   </si>
@@ -519,15 +519,6 @@
   </si>
   <si>
     <t>LC_08_04</t>
-  </si>
-  <si>
-    <t>La exposición</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: "Por qué", "porqué", "porque", "por que"</t>
-  </si>
-  <si>
-    <t>LC_07_23</t>
   </si>
   <si>
     <t>La acentuación diacrítica</t>
@@ -981,9 +972,6 @@
     <t xml:space="preserve">Refuerza tu aprendizaje: Aplica la tilde diacrítica en monosílabos </t>
   </si>
   <si>
-    <t xml:space="preserve">Se exponen diferentes contextos para que el estudiante seleccione el tipo  monosílabo empleado con y sin tilde. Actividad de reflexión y análisis. </t>
-  </si>
-  <si>
     <t>Cinco actividades que guían el proceso e escritura de una crónica. DBA: Aplica todas las etapas de la escritura en la elaboración de textos coherentes y cohesionados, con criterios cercanos a los de una publicación. DBA: Elabora un plan textual para guiar el desarrollo de las ideas y eventos de su escrito, de acuerdo al propósito de cada texto: narrar, explicar, dar información y/o argumentar.</t>
   </si>
   <si>
@@ -1000,6 +988,12 @@
   </si>
   <si>
     <t>Recurso M4A-01</t>
+  </si>
+  <si>
+    <t>Se exponen diferentes contextos para que el estudiante seleccione el tipo  monosílabo empleado con y sin tilde. Actividad de reflexión y análisis. Se sugiere tomar información del siguinte</t>
+  </si>
+  <si>
+    <t>Recurso M101A-05</t>
   </si>
 </sst>
 </file>
@@ -1707,8 +1701,8 @@
   <dimension ref="A1:V263"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T40" sqref="T40"/>
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1753,7 +1747,7 @@
         <v>111</v>
       </c>
       <c r="F1" s="56" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G1" s="64" t="s">
         <v>3</v>
@@ -1834,7 +1828,7 @@
         <v>121</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>122</v>
@@ -1842,7 +1836,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="10"/>
       <c r="G3" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H3" s="38">
         <v>1</v>
@@ -1851,7 +1845,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="44" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>20</v>
@@ -1864,7 +1858,7 @@
         <v>36</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="P3" s="20" t="s">
         <v>19</v>
@@ -1873,16 +1867,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="S3" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="T3" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="U3" s="34" t="s">
         <v>263</v>
-      </c>
-      <c r="S3" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="T3" s="47" t="s">
-        <v>265</v>
-      </c>
-      <c r="U3" s="34" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -1893,7 +1887,7 @@
         <v>121</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>122</v>
@@ -1901,7 +1895,7 @@
       <c r="E4" s="22"/>
       <c r="F4" s="23"/>
       <c r="G4" s="26" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H4" s="24">
         <v>2</v>
@@ -1910,7 +1904,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="45" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>20</v>
@@ -1923,7 +1917,7 @@
         <v>31</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P4" s="24" t="s">
         <v>19</v>
@@ -1932,16 +1926,16 @@
         <v>6</v>
       </c>
       <c r="R4" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="S4" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="T4" s="47" t="s">
+        <v>264</v>
+      </c>
+      <c r="U4" s="34" t="s">
         <v>263</v>
-      </c>
-      <c r="S4" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="T4" s="47" t="s">
-        <v>267</v>
-      </c>
-      <c r="U4" s="34" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -1952,7 +1946,7 @@
         <v>121</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>122</v>
@@ -1960,7 +1954,7 @@
       <c r="E5" s="22"/>
       <c r="F5" s="23"/>
       <c r="G5" s="26" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H5" s="24">
         <v>3</v>
@@ -1969,7 +1963,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="45" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>20</v>
@@ -1982,7 +1976,7 @@
         <v>49</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P5" s="24" t="s">
         <v>19</v>
@@ -1991,16 +1985,16 @@
         <v>6</v>
       </c>
       <c r="R5" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="S5" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="T5" s="47" t="s">
+        <v>265</v>
+      </c>
+      <c r="U5" s="34" t="s">
         <v>263</v>
-      </c>
-      <c r="S5" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="T5" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="U5" s="34" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2011,7 +2005,7 @@
         <v>121</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>122</v>
@@ -2019,7 +2013,7 @@
       <c r="E6" s="22"/>
       <c r="F6" s="23"/>
       <c r="G6" s="26" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H6" s="38">
         <v>4</v>
@@ -2028,7 +2022,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="45" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>20</v>
@@ -2041,7 +2035,7 @@
         <v>27</v>
       </c>
       <c r="O6" s="23" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="P6" s="24" t="s">
         <v>19</v>
@@ -2050,16 +2044,16 @@
         <v>6</v>
       </c>
       <c r="R6" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="S6" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="T6" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="U6" s="34" t="s">
         <v>263</v>
-      </c>
-      <c r="S6" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="T6" s="47" t="s">
-        <v>269</v>
-      </c>
-      <c r="U6" s="34" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -2070,7 +2064,7 @@
         <v>121</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>122</v>
@@ -2078,7 +2072,7 @@
       <c r="E7" s="22"/>
       <c r="F7" s="23"/>
       <c r="G7" s="26" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H7" s="24">
         <v>5</v>
@@ -2087,7 +2081,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="45" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>20</v>
@@ -2100,7 +2094,7 @@
         <v>36</v>
       </c>
       <c r="O7" s="23" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="P7" s="24" t="s">
         <v>19</v>
@@ -2109,16 +2103,16 @@
         <v>6</v>
       </c>
       <c r="R7" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="S7" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="T7" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="U7" s="34" t="s">
         <v>263</v>
-      </c>
-      <c r="S7" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="T7" s="47" t="s">
-        <v>270</v>
-      </c>
-      <c r="U7" s="34" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2129,7 +2123,7 @@
         <v>121</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>122</v>
@@ -2137,7 +2131,7 @@
       <c r="E8" s="22"/>
       <c r="F8" s="23"/>
       <c r="G8" s="26" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H8" s="24">
         <v>6</v>
@@ -2146,7 +2140,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="45" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>20</v>
@@ -2159,7 +2153,7 @@
         <v>120</v>
       </c>
       <c r="O8" s="23" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="P8" s="24" t="s">
         <v>19</v>
@@ -2168,16 +2162,16 @@
         <v>6</v>
       </c>
       <c r="R8" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="S8" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="T8" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="U8" s="34" t="s">
         <v>263</v>
-      </c>
-      <c r="S8" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="T8" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="U8" s="34" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2188,19 +2182,19 @@
         <v>121</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>123</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>124</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H9" s="38">
         <v>7</v>
@@ -2209,7 +2203,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>20</v>
@@ -2222,7 +2216,7 @@
         <v>23</v>
       </c>
       <c r="O9" s="23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P9" s="24" t="s">
         <v>19</v>
@@ -2231,16 +2225,16 @@
         <v>6</v>
       </c>
       <c r="R9" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="S9" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="T9" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="U9" s="34" t="s">
         <v>263</v>
-      </c>
-      <c r="S9" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="T9" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="U9" s="34" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
@@ -2251,19 +2245,19 @@
         <v>121</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>123</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>125</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H10" s="24">
         <v>8</v>
@@ -2272,7 +2266,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>20</v>
@@ -2285,7 +2279,7 @@
         <v>28</v>
       </c>
       <c r="O10" s="23" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="P10" s="24" t="s">
         <v>19</v>
@@ -2294,16 +2288,16 @@
         <v>6</v>
       </c>
       <c r="R10" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="S10" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="T10" s="47" t="s">
+        <v>270</v>
+      </c>
+      <c r="U10" s="34" t="s">
         <v>263</v>
-      </c>
-      <c r="S10" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="T10" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="U10" s="34" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
@@ -2314,19 +2308,19 @@
         <v>121</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>123</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>126</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H11" s="24">
         <v>9</v>
@@ -2335,7 +2329,7 @@
         <v>19</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>20</v>
@@ -2348,7 +2342,7 @@
       </c>
       <c r="N11" s="6"/>
       <c r="O11" s="23" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P11" s="24" t="s">
         <v>19</v>
@@ -2357,16 +2351,16 @@
         <v>6</v>
       </c>
       <c r="R11" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="S11" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="T11" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="U11" s="34" t="s">
         <v>274</v>
-      </c>
-      <c r="S11" s="36" t="s">
-        <v>275</v>
-      </c>
-      <c r="T11" s="47" t="s">
-        <v>276</v>
-      </c>
-      <c r="U11" s="34" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
@@ -2377,19 +2371,19 @@
         <v>121</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>123</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>127</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H12" s="38">
         <v>10</v>
@@ -2398,7 +2392,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>20</v>
@@ -2411,7 +2405,7 @@
         <v>30</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="P12" s="24" t="s">
         <v>19</v>
@@ -2420,16 +2414,16 @@
         <v>6</v>
       </c>
       <c r="R12" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="S12" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="T12" s="47" t="s">
+        <v>275</v>
+      </c>
+      <c r="U12" s="34" t="s">
         <v>263</v>
-      </c>
-      <c r="S12" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="T12" s="47" t="s">
-        <v>278</v>
-      </c>
-      <c r="U12" s="34" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
@@ -2440,19 +2434,19 @@
         <v>121</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>123</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>128</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H13" s="24">
         <v>11</v>
@@ -2461,7 +2455,7 @@
         <v>19</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>20</v>
@@ -2474,7 +2468,7 @@
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="46" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P13" s="24" t="s">
         <v>19</v>
@@ -2483,16 +2477,16 @@
         <v>6</v>
       </c>
       <c r="R13" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="S13" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="T13" s="47" t="s">
+        <v>276</v>
+      </c>
+      <c r="U13" s="34" t="s">
         <v>274</v>
-      </c>
-      <c r="S13" s="36" t="s">
-        <v>275</v>
-      </c>
-      <c r="T13" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="U13" s="34" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
@@ -2503,19 +2497,19 @@
         <v>121</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>123</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H14" s="24">
         <v>12</v>
@@ -2524,7 +2518,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>20</v>
@@ -2537,7 +2531,7 @@
         <v>44</v>
       </c>
       <c r="O14" s="23" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="P14" s="24" t="s">
         <v>20</v>
@@ -2546,16 +2540,16 @@
         <v>6</v>
       </c>
       <c r="R14" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="S14" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="T14" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="U14" s="34" t="s">
         <v>263</v>
-      </c>
-      <c r="S14" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="T14" s="47" t="s">
-        <v>280</v>
-      </c>
-      <c r="U14" s="34" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
@@ -2566,7 +2560,7 @@
         <v>121</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>123</v>
@@ -2576,7 +2570,7 @@
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="18" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H15" s="38">
         <v>13</v>
@@ -2585,7 +2579,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="27" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>20</v>
@@ -2598,7 +2592,7 @@
         <v>120</v>
       </c>
       <c r="O15" s="23" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P15" s="24" t="s">
         <v>19</v>
@@ -2607,16 +2601,16 @@
         <v>6</v>
       </c>
       <c r="R15" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="S15" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="T15" s="47" t="s">
+        <v>278</v>
+      </c>
+      <c r="U15" s="34" t="s">
         <v>263</v>
-      </c>
-      <c r="S15" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="T15" s="47" t="s">
-        <v>281</v>
-      </c>
-      <c r="U15" s="34" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
@@ -2627,7 +2621,7 @@
         <v>121</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>123</v>
@@ -2637,7 +2631,7 @@
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="18" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H16" s="24">
         <v>14</v>
@@ -2646,7 +2640,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="27" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K16" s="12" t="s">
         <v>20</v>
@@ -2659,7 +2653,7 @@
       </c>
       <c r="N16" s="6"/>
       <c r="O16" s="23" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P16" s="24" t="s">
         <v>19</v>
@@ -2668,16 +2662,16 @@
         <v>6</v>
       </c>
       <c r="R16" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="S16" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="T16" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="U16" s="34" t="s">
         <v>274</v>
-      </c>
-      <c r="S16" s="36" t="s">
-        <v>275</v>
-      </c>
-      <c r="T16" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="U16" s="34" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="63" x14ac:dyDescent="0.25">
@@ -2688,10 +2682,10 @@
         <v>121</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E17" s="25" t="s">
         <v>130</v>
@@ -2718,7 +2712,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="23" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P17" s="24" t="s">
         <v>19</v>
@@ -2747,10 +2741,10 @@
         <v>121</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>130</v>
@@ -2777,7 +2771,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="23" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P18" s="24" t="s">
         <v>19</v>
@@ -2806,10 +2800,10 @@
         <v>121</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E19" s="25" t="s">
         <v>130</v>
@@ -2825,7 +2819,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>19</v>
@@ -2836,7 +2830,7 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="23" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P19" s="24" t="s">
         <v>19</v>
@@ -2865,10 +2859,10 @@
         <v>121</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E20" s="22" t="s">
         <v>132</v>
@@ -2895,7 +2889,7 @@
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="23" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P20" s="24" t="s">
         <v>19</v>
@@ -2924,17 +2918,17 @@
         <v>121</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E21" s="22" t="s">
         <v>132</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="33" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H21" s="24">
         <v>19</v>
@@ -2943,7 +2937,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="42" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>19</v>
@@ -2954,7 +2948,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="23" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P21" s="24" t="s">
         <v>19</v>
@@ -2983,7 +2977,7 @@
         <v>121</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D22" s="32" t="s">
         <v>131</v>
@@ -2991,7 +2985,7 @@
       <c r="E22" s="22"/>
       <c r="F22" s="23"/>
       <c r="G22" s="33" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H22" s="24">
         <v>20</v>
@@ -3000,7 +2994,7 @@
         <v>19</v>
       </c>
       <c r="J22" s="27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>19</v>
@@ -3011,7 +3005,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="23" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P22" s="24" t="s">
         <v>19</v>
@@ -3023,13 +3017,13 @@
         <v>142</v>
       </c>
       <c r="S22" s="36" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="T22" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="U22" s="34" t="s">
         <v>168</v>
-      </c>
-      <c r="U22" s="34" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -3040,7 +3034,7 @@
         <v>121</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D23" s="32" t="s">
         <v>131</v>
@@ -3048,7 +3042,7 @@
       <c r="E23" s="22"/>
       <c r="F23" s="23"/>
       <c r="G23" s="26" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H23" s="38">
         <v>21</v>
@@ -3068,7 +3062,7 @@
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="43" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P23" s="24" t="s">
         <v>20</v>
@@ -3097,7 +3091,7 @@
         <v>121</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D24" s="32" t="s">
         <v>131</v>
@@ -3105,7 +3099,7 @@
       <c r="E24" s="22"/>
       <c r="F24" s="23"/>
       <c r="G24" s="28" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H24" s="24">
         <v>22</v>
@@ -3125,7 +3119,7 @@
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="43" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P24" s="24" t="s">
         <v>19</v>
@@ -3154,7 +3148,7 @@
         <v>121</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D25" s="32" t="s">
         <v>131</v>
@@ -3171,7 +3165,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>19</v>
@@ -3182,7 +3176,7 @@
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="43" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P25" s="24" t="s">
         <v>19</v>
@@ -3211,7 +3205,7 @@
         <v>121</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D26" s="32" t="s">
         <v>131</v>
@@ -3221,7 +3215,7 @@
       </c>
       <c r="F26" s="23"/>
       <c r="G26" s="26" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H26" s="24">
         <v>24</v>
@@ -3230,7 +3224,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="27" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>20</v>
@@ -3243,25 +3237,25 @@
         <v>120</v>
       </c>
       <c r="O26" s="43" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="P26" s="24" t="s">
         <v>19</v>
       </c>
       <c r="Q26" s="34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R26" s="35" t="s">
-        <v>142</v>
+        <v>260</v>
       </c>
       <c r="S26" s="36" t="s">
-        <v>165</v>
+        <v>261</v>
       </c>
       <c r="T26" s="47" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="U26" s="34" t="s">
-        <v>167</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3272,17 +3266,17 @@
         <v>121</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E27" s="25" t="s">
         <v>133</v>
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="26" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H27" s="38">
         <v>25</v>
@@ -3291,7 +3285,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="27" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>19</v>
@@ -3304,7 +3298,7 @@
       </c>
       <c r="N27" s="6"/>
       <c r="O27" s="23" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P27" s="24" t="s">
         <v>19</v>
@@ -3316,13 +3310,13 @@
         <v>142</v>
       </c>
       <c r="S27" s="36" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="T27" s="47" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="U27" s="34" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -3333,17 +3327,17 @@
         <v>121</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E28" s="22" t="s">
         <v>134</v>
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="18" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H28" s="24">
         <v>26</v>
@@ -3352,7 +3346,7 @@
         <v>19</v>
       </c>
       <c r="J28" s="27" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>20</v>
@@ -3365,7 +3359,7 @@
         <v>36</v>
       </c>
       <c r="O28" s="23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P28" s="24" t="s">
         <v>19</v>
@@ -3374,16 +3368,16 @@
         <v>6</v>
       </c>
       <c r="R28" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="S28" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="T28" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="U28" s="34" t="s">
         <v>263</v>
-      </c>
-      <c r="S28" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="T28" s="47" t="s">
-        <v>285</v>
-      </c>
-      <c r="U28" s="34" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -3394,17 +3388,17 @@
         <v>121</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E29" s="25" t="s">
         <v>135</v>
       </c>
       <c r="F29" s="23"/>
       <c r="G29" s="18" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H29" s="24">
         <v>27</v>
@@ -3413,7 +3407,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="27" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>20</v>
@@ -3426,7 +3420,7 @@
         <v>24</v>
       </c>
       <c r="O29" s="23" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="P29" s="24" t="s">
         <v>20</v>
@@ -3435,16 +3429,16 @@
         <v>6</v>
       </c>
       <c r="R29" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="S29" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="T29" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="U29" s="34" t="s">
         <v>263</v>
-      </c>
-      <c r="S29" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="T29" s="47" t="s">
-        <v>286</v>
-      </c>
-      <c r="U29" s="34" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -3455,17 +3449,17 @@
         <v>121</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E30" s="22" t="s">
         <v>129</v>
       </c>
       <c r="F30" s="23"/>
       <c r="G30" s="18" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H30" s="24">
         <v>28</v>
@@ -3474,7 +3468,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="27" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>20</v>
@@ -3484,10 +3478,10 @@
       </c>
       <c r="M30" s="6"/>
       <c r="N30" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O30" s="23" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P30" s="24" t="s">
         <v>19</v>
@@ -3496,16 +3490,16 @@
         <v>6</v>
       </c>
       <c r="R30" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="S30" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="T30" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="U30" s="34" t="s">
         <v>263</v>
-      </c>
-      <c r="S30" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="T30" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="U30" s="34" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -3516,7 +3510,7 @@
         <v>121</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>136</v>
@@ -3526,7 +3520,7 @@
       </c>
       <c r="F31" s="23"/>
       <c r="G31" s="18" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H31" s="38">
         <v>29</v>
@@ -3535,7 +3529,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="27" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>20</v>
@@ -3548,7 +3542,7 @@
         <v>45</v>
       </c>
       <c r="O31" s="23" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P31" s="24" t="s">
         <v>19</v>
@@ -3557,16 +3551,16 @@
         <v>6</v>
       </c>
       <c r="R31" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="S31" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="T31" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="U31" s="34" t="s">
         <v>263</v>
-      </c>
-      <c r="S31" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="T31" s="47" t="s">
-        <v>287</v>
-      </c>
-      <c r="U31" s="34" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
@@ -3577,7 +3571,7 @@
         <v>121</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>136</v>
@@ -3587,7 +3581,7 @@
       </c>
       <c r="F32" s="23"/>
       <c r="G32" s="41" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H32" s="24">
         <v>30</v>
@@ -3596,7 +3590,7 @@
         <v>20</v>
       </c>
       <c r="J32" s="27" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>19</v>
@@ -3609,7 +3603,7 @@
       </c>
       <c r="N32" s="6"/>
       <c r="O32" s="23" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="P32" s="24" t="s">
         <v>19</v>
@@ -3621,13 +3615,13 @@
         <v>142</v>
       </c>
       <c r="S32" s="36" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="T32" s="47" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="U32" s="34" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -3638,7 +3632,7 @@
         <v>121</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>136</v>
@@ -3648,7 +3642,7 @@
       </c>
       <c r="F33" s="23"/>
       <c r="G33" s="26" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H33" s="24">
         <v>31</v>
@@ -3657,7 +3651,7 @@
         <v>20</v>
       </c>
       <c r="J33" s="27" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>20</v>
@@ -3670,7 +3664,7 @@
         <v>120</v>
       </c>
       <c r="O33" s="23" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="P33" s="24" t="s">
         <v>19</v>
@@ -3679,16 +3673,16 @@
         <v>6</v>
       </c>
       <c r="R33" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="S33" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="T33" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="U33" s="34" t="s">
         <v>263</v>
-      </c>
-      <c r="S33" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="T33" s="47" t="s">
-        <v>283</v>
-      </c>
-      <c r="U33" s="34" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -3699,7 +3693,7 @@
         <v>121</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>139</v>
@@ -3707,7 +3701,7 @@
       <c r="E34" s="22"/>
       <c r="F34" s="23"/>
       <c r="G34" s="18" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H34" s="24">
         <v>32</v>
@@ -3716,7 +3710,7 @@
         <v>20</v>
       </c>
       <c r="J34" s="27" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>20</v>
@@ -3729,7 +3723,7 @@
         <v>33</v>
       </c>
       <c r="O34" s="23" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P34" s="24" t="s">
         <v>19</v>
@@ -3738,16 +3732,16 @@
         <v>6</v>
       </c>
       <c r="R34" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="S34" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="T34" s="47" t="s">
+        <v>285</v>
+      </c>
+      <c r="U34" s="34" t="s">
         <v>263</v>
-      </c>
-      <c r="S34" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="T34" s="47" t="s">
-        <v>288</v>
-      </c>
-      <c r="U34" s="34" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -3758,7 +3752,7 @@
         <v>121</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>139</v>
@@ -3766,7 +3760,7 @@
       <c r="E35" s="22"/>
       <c r="F35" s="23"/>
       <c r="G35" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H35" s="38">
         <v>33</v>
@@ -3775,7 +3769,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="27" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>20</v>
@@ -3788,7 +3782,7 @@
         <v>47</v>
       </c>
       <c r="O35" s="23" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="P35" s="24" t="s">
         <v>19</v>
@@ -3797,16 +3791,16 @@
         <v>6</v>
       </c>
       <c r="R35" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="S35" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="T35" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="U35" s="34" t="s">
         <v>263</v>
-      </c>
-      <c r="S35" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="T35" s="47" t="s">
-        <v>289</v>
-      </c>
-      <c r="U35" s="34" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -3817,7 +3811,7 @@
         <v>121</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>139</v>
@@ -3825,7 +3819,7 @@
       <c r="E36" s="22"/>
       <c r="F36" s="23"/>
       <c r="G36" s="18" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H36" s="24">
         <v>34</v>
@@ -3834,7 +3828,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="27" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>20</v>
@@ -3847,7 +3841,7 @@
         <v>38</v>
       </c>
       <c r="O36" s="23" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="P36" s="24" t="s">
         <v>19</v>
@@ -3856,16 +3850,16 @@
         <v>6</v>
       </c>
       <c r="R36" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="S36" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="T36" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="U36" s="34" t="s">
         <v>263</v>
-      </c>
-      <c r="S36" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="T36" s="47" t="s">
-        <v>290</v>
-      </c>
-      <c r="U36" s="34" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -3876,7 +3870,7 @@
         <v>121</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>139</v>
@@ -3884,7 +3878,7 @@
       <c r="E37" s="22"/>
       <c r="F37" s="23"/>
       <c r="G37" s="18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H37" s="24">
         <v>35</v>
@@ -3893,7 +3887,7 @@
         <v>20</v>
       </c>
       <c r="J37" s="27" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>20</v>
@@ -3906,7 +3900,7 @@
         <v>43</v>
       </c>
       <c r="O37" s="23" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="P37" s="24" t="s">
         <v>19</v>
@@ -3915,16 +3909,16 @@
         <v>6</v>
       </c>
       <c r="R37" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="S37" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="T37" s="47" t="s">
+        <v>288</v>
+      </c>
+      <c r="U37" s="34" t="s">
         <v>263</v>
-      </c>
-      <c r="S37" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="T37" s="47" t="s">
-        <v>291</v>
-      </c>
-      <c r="U37" s="34" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -3935,7 +3929,7 @@
         <v>121</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>139</v>
@@ -3943,7 +3937,7 @@
       <c r="E38" s="22"/>
       <c r="F38" s="23"/>
       <c r="G38" s="18" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H38" s="24">
         <v>36</v>
@@ -3952,7 +3946,7 @@
         <v>20</v>
       </c>
       <c r="J38" s="27" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>20</v>
@@ -3965,7 +3959,7 @@
         <v>46</v>
       </c>
       <c r="O38" s="23" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P38" s="24" t="s">
         <v>19</v>
@@ -3974,16 +3968,16 @@
         <v>6</v>
       </c>
       <c r="R38" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="S38" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="T38" s="47" t="s">
+        <v>289</v>
+      </c>
+      <c r="U38" s="34" t="s">
         <v>263</v>
-      </c>
-      <c r="S38" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="T38" s="47" t="s">
-        <v>292</v>
-      </c>
-      <c r="U38" s="34" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
@@ -3994,10 +3988,10 @@
         <v>121</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E39" s="22"/>
       <c r="F39" s="23"/>
@@ -4011,7 +4005,7 @@
         <v>20</v>
       </c>
       <c r="J39" s="27" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>20</v>
@@ -4037,10 +4031,10 @@
         <v>121</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E40" s="22"/>
       <c r="F40" s="23"/>
@@ -4054,7 +4048,7 @@
         <v>20</v>
       </c>
       <c r="J40" s="27" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>20</v>
@@ -4067,7 +4061,7 @@
         <v>32</v>
       </c>
       <c r="O40" s="23" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P40" s="24" t="s">
         <v>19</v>
@@ -4076,16 +4070,16 @@
         <v>6</v>
       </c>
       <c r="R40" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="S40" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="T40" s="47" t="s">
+        <v>310</v>
+      </c>
+      <c r="U40" s="34" t="s">
         <v>263</v>
-      </c>
-      <c r="S40" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="T40" s="47" t="s">
-        <v>314</v>
-      </c>
-      <c r="U40" s="34" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
@@ -4096,15 +4090,15 @@
         <v>121</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E41" s="22"/>
       <c r="F41" s="23"/>
       <c r="G41" s="18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H41" s="24">
         <v>39</v>
@@ -4113,7 +4107,7 @@
         <v>20</v>
       </c>
       <c r="J41" s="27" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>20</v>
@@ -4126,7 +4120,7 @@
         <v>52</v>
       </c>
       <c r="O41" s="23" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="P41" s="24" t="s">
         <v>20</v>
@@ -4135,16 +4129,16 @@
         <v>6</v>
       </c>
       <c r="R41" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="S41" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="T41" s="47" t="s">
+        <v>290</v>
+      </c>
+      <c r="U41" s="34" t="s">
         <v>263</v>
-      </c>
-      <c r="S41" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="T41" s="47" t="s">
-        <v>293</v>
-      </c>
-      <c r="U41" s="34" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>

--- a/fuentes/contenidos/grado08/guion05/Escaleta_LE_08_05_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion05/Escaleta_LE_08_05_CO.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AULA PLANETA\PROCESO JUNIO 2015\GRADO OCTAVO\LE_08_05_CO\proceso y control\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="8160"/>
   </bookViews>
@@ -18,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525" iterateCount="2" iterateDelta="10"/>
 </workbook>
 </file>
 
@@ -972,6 +967,9 @@
     <t xml:space="preserve">Refuerza tu aprendizaje: Aplica la tilde diacrítica en monosílabos </t>
   </si>
   <si>
+    <t xml:space="preserve">Se exponen diferentes contextos para que el estudiante seleccione el tipo  monosílabo empleado con y sin tilde. Actividad de reflexión y análisis. </t>
+  </si>
+  <si>
     <t>Cinco actividades que guían el proceso e escritura de una crónica. DBA: Aplica todas las etapas de la escritura en la elaboración de textos coherentes y cohesionados, con criterios cercanos a los de una publicación. DBA: Elabora un plan textual para guiar el desarrollo de las ideas y eventos de su escrito, de acuerdo al propósito de cada texto: narrar, explicar, dar información y/o argumentar.</t>
   </si>
   <si>
@@ -988,9 +986,6 @@
   </si>
   <si>
     <t>Recurso M4A-01</t>
-  </si>
-  <si>
-    <t>Se exponen diferentes contextos para que el estudiante seleccione el tipo  monosílabo empleado con y sin tilde. Actividad de reflexión y análisis. Se sugiere tomar información del siguinte</t>
   </si>
   <si>
     <t>Recurso M101A-05</t>
@@ -1454,7 +1449,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1489,7 +1484,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1700,9 +1695,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3237,7 +3232,7 @@
         <v>120</v>
       </c>
       <c r="O26" s="43" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="P26" s="24" t="s">
         <v>19</v>
@@ -3603,7 +3598,7 @@
       </c>
       <c r="N32" s="6"/>
       <c r="O32" s="23" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P32" s="24" t="s">
         <v>19</v>
@@ -3664,7 +3659,7 @@
         <v>120</v>
       </c>
       <c r="O33" s="23" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P33" s="24" t="s">
         <v>19</v>
@@ -3710,7 +3705,7 @@
         <v>20</v>
       </c>
       <c r="J34" s="27" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>20</v>
@@ -3769,7 +3764,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="27" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>20</v>
@@ -3782,7 +3777,7 @@
         <v>47</v>
       </c>
       <c r="O35" s="23" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P35" s="24" t="s">
         <v>19</v>
@@ -4076,7 +4071,7 @@
         <v>261</v>
       </c>
       <c r="T40" s="47" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="U40" s="34" t="s">
         <v>263</v>

--- a/fuentes/contenidos/grado08/guion05/Escaleta_LE_08_05_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion05/Escaleta_LE_08_05_CO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luz Amparo\Documents\GitHub\Lenguaje\fuentes\contenidos\grado08\guion05\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="8160"/>
   </bookViews>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="314">
   <si>
     <t>Asignatura</t>
   </si>
@@ -459,24 +464,15 @@
     <t>LC_08_05</t>
   </si>
   <si>
-    <t>Interactivo que realiza una presentación de los principales constituyentes de la oración: sujeto y predicado</t>
-  </si>
-  <si>
     <t>Banco de actividades: La oración simple</t>
   </si>
   <si>
     <t>Refuerza tu aprendizaje: La oración simple</t>
   </si>
   <si>
-    <t>Actividades sobre La oración simple</t>
-  </si>
-  <si>
     <t>Comprensión de texto: la oración simple</t>
   </si>
   <si>
-    <t>Interactivo que sirve para mejorar la comprensión lectora y reflexionar sobre la oración simple</t>
-  </si>
-  <si>
     <t>Realiza el análisis morfosintáctico de una oración simple</t>
   </si>
   <si>
@@ -492,9 +488,6 @@
     <t>LC_3C_07</t>
   </si>
   <si>
-    <t>Actividad para identificar la palabra con acentuación diacrítica adecuada para completar unas  oraciones</t>
-  </si>
-  <si>
     <t>La comprensión y la composición de textos</t>
   </si>
   <si>
@@ -537,9 +530,6 @@
     <t>LC_07_29</t>
   </si>
   <si>
-    <t xml:space="preserve">Actividad que contribuye a desarrollar el análisis de la objetividad y subjetividad de los mensajes periodísticos </t>
-  </si>
-  <si>
     <t>Los medios de comunicación</t>
   </si>
   <si>
@@ -555,57 +545,15 @@
     <t xml:space="preserve">Comprensión textual: la crónica </t>
   </si>
   <si>
-    <t>Ortografía: reconoce las palabras con tilde diacrítica</t>
-  </si>
-  <si>
     <t>Comprensión textual: la crónica</t>
   </si>
   <si>
-    <t>Práctica la acentuación diacrítica</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Completa u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n texto con monosílabos con tilde diacrítica</t>
-    </r>
-  </si>
-  <si>
     <t>La crónica</t>
   </si>
   <si>
-    <t>Elabora una crónica</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Selecciona las características de una crónica</t>
-  </si>
-  <si>
-    <t>Literatura: Reconoce las características del Modernismo</t>
-  </si>
-  <si>
-    <t>Comprensión textual: Compara crónicas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Banco de actividades </t>
   </si>
   <si>
-    <t>Banco de actividades: La Crónica</t>
-  </si>
-  <si>
     <t>Mapa conceptual del tema La Crónica</t>
   </si>
   <si>
@@ -615,9 +563,6 @@
     <t>Actividades sobre el tema La Crónica</t>
   </si>
   <si>
-    <t>Producción textual: Ordena una crónica</t>
-  </si>
-  <si>
     <t>Gramática: el análisis sintáctico de la oración simple</t>
   </si>
   <si>
@@ -630,57 +575,30 @@
     <t>Actividad para reconocer las oraciones simples</t>
   </si>
   <si>
-    <t>Actividad que permite identificar las palabras con tilde</t>
-  </si>
-  <si>
     <t>Producción textual: la crónica</t>
   </si>
   <si>
     <t>Actividad para identificar los elementos clave para escribir una crónica</t>
   </si>
   <si>
-    <t>Actividad para practicar  en el análisis morfosintáctico de las oraciones simples</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interactivo que expone las características de la crónica </t>
-  </si>
-  <si>
-    <t>Determina la estructura temporal de una crónica</t>
-  </si>
-  <si>
     <t>Actividad para utilizar de manera adecuada la tilde diacrítica</t>
   </si>
   <si>
     <t>Actividad para reconocer los elementos temporales en una crónica</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: la crónica</t>
-  </si>
-  <si>
-    <t>Las etapas de planeación de una crónica</t>
-  </si>
-  <si>
     <t>Actividad que permite organizar las etapas de redacción de una crónica</t>
   </si>
   <si>
-    <t>Actividad que permite profundizar en las características de la crónica y del lenguaje periodístico</t>
-  </si>
-  <si>
     <t>Se debe proponer organizar un texto que cubra las partes del texto.</t>
   </si>
   <si>
     <t>M101a</t>
   </si>
   <si>
-    <t>Actividad para sintetizar las partes y los elementos de una crónica</t>
-  </si>
-  <si>
     <t>Actividad que resume el proceso de escritura de una crónica</t>
   </si>
   <si>
-    <t>Actividad de respuesta abierta del tema La oración simple</t>
-  </si>
-  <si>
     <t xml:space="preserve">Revisar el recurso y seleccionar las preguntas abiertas que mas se relacionan con nuestro contexto. Ajustar el vocabulario y el lenguaje de ser necesario. </t>
   </si>
   <si>
@@ -714,27 +632,12 @@
     <t>El teatro</t>
   </si>
   <si>
-    <t>Actividad para completar oraciones con el monosílabo adecuado</t>
-  </si>
-  <si>
     <t>Literatura: reconoce la literatura de la primera mitad del siglo XX</t>
   </si>
   <si>
-    <t xml:space="preserve">Actividad para explorar las características de la literatura  primera mitad del siglo XX </t>
-  </si>
-  <si>
-    <t>Actividad para inferir las características de la crónica</t>
-  </si>
-  <si>
-    <t>Actividad para relacionar los principales hechos históricos de la primera mitad del siglo XX</t>
-  </si>
-  <si>
     <t>Actividad para reconocer el desarrollo social de la primera mitad del siglo XX</t>
   </si>
   <si>
-    <t>Interactivo para comparar el desarrollo de la cultura de la primera mitad del siglo XX</t>
-  </si>
-  <si>
     <t xml:space="preserve">Conoce el contexto histórico </t>
   </si>
   <si>
@@ -742,9 +645,6 @@
   </si>
   <si>
     <t>Identifica los procesos de modernización</t>
-  </si>
-  <si>
-    <t>Clasifica las características de la novela telúrica</t>
   </si>
   <si>
     <r>
@@ -778,36 +678,21 @@
     <t>Refuerza tu aprendizaje: La literatura de la primera mitad del siglo XX</t>
   </si>
   <si>
-    <t>Actividad para reforzar la caracterización de la literatura de la primera mitad del siglo XX</t>
-  </si>
-  <si>
     <t xml:space="preserve">Elaborar diez preguntas relacionadas con la literatura de la primera mitad del siglo XX, que cubra autores, géneros, contexto cultural, entre otros. </t>
   </si>
   <si>
     <t>Refuerza tu aprendizaje: Antología literaria</t>
   </si>
   <si>
-    <t>Actividad que amplia el desarrollo literario en Colombia</t>
-  </si>
-  <si>
     <t>Fragmentos de textos de diferentes crónicas para completar a partir de la estructura temporal</t>
   </si>
   <si>
-    <t>Gramática: Escribe oraciones simples</t>
-  </si>
-  <si>
-    <t>Ortografía: Escribe las palabras con acento diacrítico</t>
-  </si>
-  <si>
     <t>Actividad para distinguir el acento diacrítico</t>
   </si>
   <si>
     <t>Seis audios de temas diferentes que contengan palabras con acento diacrítico</t>
   </si>
   <si>
-    <t>Actividad para determinar  diferentes tipos de crónica</t>
-  </si>
-  <si>
     <t>Tres contenedores con etiquetas de tipos de crónicas y características de cada una de ellas para que los estudiantes los ubiquen en el contenedor correspondiente.</t>
   </si>
   <si>
@@ -931,9 +816,6 @@
     <t>Texto corto relacionado con el la Gruta simbólica y una lista desplegable con palabras, que contengan tilde diacrítica.</t>
   </si>
   <si>
-    <t>Ortografía: selecciona el monosílabo adecuado</t>
-  </si>
-  <si>
     <t xml:space="preserve">Seis u ocho oraciones relacionadas preferiblemente con algún tema visto durante la unidad, en lista desplegable aparecen diferentes monosílabos para seleccionar el adecuado. </t>
   </si>
   <si>
@@ -961,9 +843,6 @@
     <t>Refuerza tu aprendizaje: Las oraciones simples en contexto</t>
   </si>
   <si>
-    <t>Actividad que permite trabajar la tilde diacrítica</t>
-  </si>
-  <si>
     <t xml:space="preserve">Refuerza tu aprendizaje: Aplica la tilde diacrítica en monosílabos </t>
   </si>
   <si>
@@ -976,12 +855,6 @@
     <t>Preguntas relacionadas con diferentes estilos de crónicas. Se sugiere ejemplificar en algunos casos con textos cortos o contextos de crónicas.</t>
   </si>
   <si>
-    <t>Actividad que sintetiza el enfoque modernista en Colombia</t>
-  </si>
-  <si>
-    <t>Actividad para redactar oraciones simples</t>
-  </si>
-  <si>
     <t xml:space="preserve">A partir de la observación de un video, los estudiantes deben ordenar oraciones simples de acuerdo a la secuencia de este. Video titulado El Anarquismo. Tomado de: CS_10_04, La sociedad industrial y sus ideologías, El anarquismo, CIENCIAS SOCIALES, GEOGRAFÍA E HISTORIA. </t>
   </si>
   <si>
@@ -989,13 +862,130 @@
   </si>
   <si>
     <t>Recurso M101A-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ortografía: reconoce las palabras con tilde </t>
+  </si>
+  <si>
+    <t>Ortografía: selecciona el monosilabo</t>
+  </si>
+  <si>
+    <t>Identifica las características narrativas de La vorágine</t>
+  </si>
+  <si>
+    <t>Analiza una oración simple</t>
+  </si>
+  <si>
+    <t>Practica la acentuación diacrítica</t>
+  </si>
+  <si>
+    <t>Selecciona el monosílabo</t>
+  </si>
+  <si>
+    <t>Selecciona  las  palabras diacríticas</t>
+  </si>
+  <si>
+    <t>Determina la estructura de una crónica</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: La crónica</t>
+  </si>
+  <si>
+    <t>Organiza las etapas de una crónica</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Características de una crónica</t>
+  </si>
+  <si>
+    <t>Literatura: características  de la primera mitad del siglo XX</t>
+  </si>
+  <si>
+    <t>Gramática: reconoce oraciones simples</t>
+  </si>
+  <si>
+    <t>Ortografía: la tilde diacrítica</t>
+  </si>
+  <si>
+    <t>Comprensión textual: compara crónicas</t>
+  </si>
+  <si>
+    <t>Producción textual: ordena una crónica</t>
+  </si>
+  <si>
+    <t>Banco de actividades: La crónica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para explorar la  literatura de la primera mitad del siglo XX </t>
+  </si>
+  <si>
+    <t>Actividad que permite identificar las palabras con tilde diacrítica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para completar oraciones con monosílabos </t>
+  </si>
+  <si>
+    <t>Actividad para interpretar  una crónica</t>
+  </si>
+  <si>
+    <t>Actividad para identificar los hechos históricos de la primera mitad del siglo XX</t>
+  </si>
+  <si>
+    <t>Interactivo para comparar el desarrollo cultural de la primera mitad del siglo XX</t>
+  </si>
+  <si>
+    <t>Actividad para profundizar en la literatura de la primera mitad del siglo XX</t>
+  </si>
+  <si>
+    <t>Actividad que amplía el desarrollo literario en Colombia</t>
+  </si>
+  <si>
+    <t>Interactivo que expone los constituyentes de la oración: sujeto y predicado</t>
+  </si>
+  <si>
+    <t>Interactivo que sirve para reflexionar sobre la oración simple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para reforzar el análisis de la oración simple </t>
+  </si>
+  <si>
+    <t>Actividad para reforzar el análisis de la oración simple</t>
+  </si>
+  <si>
+    <t>Actividad para analizar la estructura de las oraciones simples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para identificar las palabras con acentuación diacrítica </t>
+  </si>
+  <si>
+    <t>Actividad que permite afianzar el uso de la tilde diacrítica</t>
+  </si>
+  <si>
+    <t>Interactivo que permite la comprensión y la producción de una crónica</t>
+  </si>
+  <si>
+    <t>Actividad para identificar las características de la crónica</t>
+  </si>
+  <si>
+    <t>Actividad para relacionar las partes y los elementos de una crónica</t>
+  </si>
+  <si>
+    <t>Interactivo para profundizar en las características de la crónica y del lenguaje periodístico</t>
+  </si>
+  <si>
+    <t>Actividad que sintetiza el enfoque literario de la primera mitad del siglo XX</t>
+  </si>
+  <si>
+    <t>Actividad para practicar el uso de las oraciones simples</t>
+  </si>
+  <si>
+    <t>Actividad para determinar  diferentes tipos de crónicas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1027,20 +1017,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1136,7 +1113,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1187,11 +1164,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1254,15 +1244,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1270,11 +1251,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1288,7 +1266,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1297,46 +1275,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1344,10 +1288,16 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1377,9 +1327,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1388,6 +1335,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1449,7 +1420,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1484,7 +1455,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1695,9 +1666,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T33" sqref="T33"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1705,19 +1676,19 @@
     <col min="1" max="1" width="16.5703125" style="21" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="21" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" style="29" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" style="26" customWidth="1"/>
     <col min="5" max="5" width="36.28515625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" style="30" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="27" customWidth="1"/>
     <col min="7" max="7" width="51.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="31" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="30" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="28" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="27" customWidth="1"/>
     <col min="10" max="10" width="38.7109375" style="17" customWidth="1"/>
     <col min="11" max="11" width="16.140625" style="21" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" style="21" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" style="21" customWidth="1"/>
-    <col min="15" max="15" width="37.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="31" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" style="30" customWidth="1"/>
+    <col min="15" max="15" width="37.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="28" customWidth="1"/>
+    <col min="17" max="17" width="20.42578125" style="27" customWidth="1"/>
     <col min="18" max="18" width="23" style="21" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" style="21" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="25.85546875" style="21" bestFit="1" customWidth="1"/>
@@ -1726,96 +1697,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="17" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="G1" s="64" t="s">
+      <c r="F1" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="68" t="s">
+      <c r="J1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="64" t="s">
+      <c r="L1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="70" t="s">
+      <c r="M1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="70"/>
-      <c r="O1" s="48" t="s">
+      <c r="N1" s="55"/>
+      <c r="O1" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="P1" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="Q1" s="50" t="s">
+      <c r="Q1" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="54" t="s">
+      <c r="R1" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="50" t="s">
+      <c r="S1" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="52" t="s">
+      <c r="T1" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="50" t="s">
+      <c r="U1" s="58" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="17" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="65"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="51"/>
       <c r="M2" s="14" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="51"/>
-    </row>
-    <row r="3" spans="1:21" ht="32.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="59"/>
+    </row>
+    <row r="3" spans="1:21" ht="38.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
@@ -1823,24 +1794,24 @@
         <v>121</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>122</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="H3" s="38">
+      <c r="G3" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="H3" s="34">
         <v>1</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="44" t="s">
-        <v>227</v>
+      <c r="J3" s="65" t="s">
+        <v>292</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>20</v>
@@ -1853,28 +1824,28 @@
         <v>36</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="P3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="34">
+      <c r="Q3" s="30">
         <v>6</v>
       </c>
-      <c r="R3" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="S3" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="T3" s="47" t="s">
-        <v>262</v>
-      </c>
-      <c r="U3" s="34" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R3" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="S3" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="T3" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="U3" s="30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
@@ -1882,15 +1853,15 @@
         <v>121</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>122</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="23"/>
-      <c r="G4" s="26" t="s">
-        <v>176</v>
+      <c r="G4" s="36" t="s">
+        <v>171</v>
       </c>
       <c r="H4" s="24">
         <v>2</v>
@@ -1898,8 +1869,8 @@
       <c r="I4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="45" t="s">
-        <v>196</v>
+      <c r="J4" s="65" t="s">
+        <v>182</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>20</v>
@@ -1912,28 +1883,28 @@
         <v>31</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="P4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="34">
+      <c r="Q4" s="30">
         <v>6</v>
       </c>
-      <c r="R4" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="S4" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="T4" s="47" t="s">
-        <v>264</v>
-      </c>
-      <c r="U4" s="34" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R4" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="S4" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="T4" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="U4" s="30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
@@ -1941,15 +1912,15 @@
         <v>121</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>122</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="23"/>
-      <c r="G5" s="26" t="s">
-        <v>178</v>
+      <c r="G5" s="36" t="s">
+        <v>275</v>
       </c>
       <c r="H5" s="24">
         <v>3</v>
@@ -1957,8 +1928,8 @@
       <c r="I5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="45" t="s">
-        <v>197</v>
+      <c r="J5" s="65" t="s">
+        <v>293</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>20</v>
@@ -1971,25 +1942,25 @@
         <v>49</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="P5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="34">
+      <c r="Q5" s="30">
         <v>6</v>
       </c>
-      <c r="R5" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="S5" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="T5" s="47" t="s">
-        <v>265</v>
-      </c>
-      <c r="U5" s="34" t="s">
-        <v>263</v>
+      <c r="R5" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="S5" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="T5" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="U5" s="30" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2000,24 +1971,24 @@
         <v>121</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>122</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="23"/>
-      <c r="G6" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="H6" s="38">
+      <c r="G6" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="H6" s="34">
         <v>4</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="45" t="s">
-        <v>225</v>
+      <c r="J6" s="65" t="s">
+        <v>294</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>20</v>
@@ -2030,28 +2001,28 @@
         <v>27</v>
       </c>
       <c r="O6" s="23" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="P6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="34">
+      <c r="Q6" s="30">
         <v>6</v>
       </c>
-      <c r="R6" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="S6" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="T6" s="47" t="s">
-        <v>266</v>
-      </c>
-      <c r="U6" s="34" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R6" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="S6" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="T6" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="U6" s="30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
@@ -2059,15 +2030,15 @@
         <v>121</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>122</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="23"/>
-      <c r="G7" s="26" t="s">
-        <v>179</v>
+      <c r="G7" s="36" t="s">
+        <v>173</v>
       </c>
       <c r="H7" s="24">
         <v>5</v>
@@ -2075,8 +2046,8 @@
       <c r="I7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="45" t="s">
-        <v>228</v>
+      <c r="J7" s="65" t="s">
+        <v>295</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>20</v>
@@ -2089,25 +2060,25 @@
         <v>36</v>
       </c>
       <c r="O7" s="23" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="P7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="30">
         <v>6</v>
       </c>
-      <c r="R7" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="S7" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="T7" s="47" t="s">
-        <v>267</v>
-      </c>
-      <c r="U7" s="34" t="s">
-        <v>263</v>
+      <c r="R7" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="S7" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="T7" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="U7" s="30" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2118,15 +2089,15 @@
         <v>121</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>122</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="23"/>
-      <c r="G8" s="26" t="s">
-        <v>198</v>
+      <c r="G8" s="36" t="s">
+        <v>183</v>
       </c>
       <c r="H8" s="24">
         <v>6</v>
@@ -2134,8 +2105,8 @@
       <c r="I8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="45" t="s">
-        <v>199</v>
+      <c r="J8" s="65" t="s">
+        <v>184</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>20</v>
@@ -2148,25 +2119,25 @@
         <v>120</v>
       </c>
       <c r="O8" s="23" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="P8" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="34">
+      <c r="Q8" s="30">
         <v>6</v>
       </c>
-      <c r="R8" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="S8" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="T8" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="U8" s="34" t="s">
-        <v>263</v>
+      <c r="R8" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="S8" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="T8" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="U8" s="30" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2177,28 +2148,28 @@
         <v>121</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>123</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="G9" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="H9" s="38">
+      <c r="G9" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="H9" s="34">
         <v>7</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="27" t="s">
-        <v>229</v>
+      <c r="J9" s="65" t="s">
+        <v>296</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>20</v>
@@ -2211,25 +2182,25 @@
         <v>23</v>
       </c>
       <c r="O9" s="23" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="P9" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="34">
+      <c r="Q9" s="30">
         <v>6</v>
       </c>
-      <c r="R9" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="S9" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="T9" s="47" t="s">
-        <v>269</v>
-      </c>
-      <c r="U9" s="34" t="s">
-        <v>263</v>
+      <c r="R9" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="S9" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="T9" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="U9" s="30" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
@@ -2240,19 +2211,19 @@
         <v>121</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>123</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="G10" s="18" t="s">
-        <v>234</v>
+      <c r="G10" s="36" t="s">
+        <v>206</v>
       </c>
       <c r="H10" s="24">
         <v>8</v>
@@ -2260,8 +2231,8 @@
       <c r="I10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="27" t="s">
-        <v>230</v>
+      <c r="J10" s="65" t="s">
+        <v>203</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>20</v>
@@ -2274,25 +2245,25 @@
         <v>28</v>
       </c>
       <c r="O10" s="23" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="P10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="34">
+      <c r="Q10" s="30">
         <v>6</v>
       </c>
-      <c r="R10" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="S10" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="T10" s="47" t="s">
-        <v>270</v>
-      </c>
-      <c r="U10" s="34" t="s">
-        <v>263</v>
+      <c r="R10" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="S10" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="T10" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="U10" s="30" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
@@ -2303,19 +2274,19 @@
         <v>121</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>123</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="G11" s="26" t="s">
-        <v>233</v>
+      <c r="G11" s="36" t="s">
+        <v>205</v>
       </c>
       <c r="H11" s="24">
         <v>9</v>
@@ -2323,8 +2294,8 @@
       <c r="I11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="27" t="s">
-        <v>231</v>
+      <c r="J11" s="65" t="s">
+        <v>297</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>20</v>
@@ -2337,25 +2308,25 @@
       </c>
       <c r="N11" s="6"/>
       <c r="O11" s="23" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="P11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="34">
+      <c r="Q11" s="30">
         <v>6</v>
       </c>
-      <c r="R11" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="S11" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="T11" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="U11" s="34" t="s">
-        <v>274</v>
+      <c r="R11" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="S11" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="T11" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="U11" s="30" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
@@ -2366,28 +2337,28 @@
         <v>121</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>123</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="H12" s="38">
+      <c r="G12" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="H12" s="34">
         <v>10</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="27" t="s">
-        <v>298</v>
+      <c r="J12" s="65" t="s">
+        <v>263</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>20</v>
@@ -2400,25 +2371,25 @@
         <v>30</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="P12" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="34">
+      <c r="Q12" s="30">
         <v>6</v>
       </c>
-      <c r="R12" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="S12" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="T12" s="47" t="s">
-        <v>275</v>
-      </c>
-      <c r="U12" s="34" t="s">
-        <v>263</v>
+      <c r="R12" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="S12" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="T12" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="U12" s="30" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
@@ -2429,19 +2400,19 @@
         <v>121</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>123</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="G13" s="18" t="s">
-        <v>237</v>
+      <c r="G13" s="36" t="s">
+        <v>208</v>
       </c>
       <c r="H13" s="24">
         <v>11</v>
@@ -2449,8 +2420,8 @@
       <c r="I13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="27" t="s">
-        <v>238</v>
+      <c r="J13" s="65" t="s">
+        <v>209</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>20</v>
@@ -2462,26 +2433,26 @@
         <v>63</v>
       </c>
       <c r="N13" s="6"/>
-      <c r="O13" s="46" t="s">
-        <v>299</v>
+      <c r="O13" s="38" t="s">
+        <v>264</v>
       </c>
       <c r="P13" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="34">
+      <c r="Q13" s="30">
         <v>6</v>
       </c>
-      <c r="R13" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="S13" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="T13" s="47" t="s">
-        <v>276</v>
-      </c>
-      <c r="U13" s="34" t="s">
-        <v>274</v>
+      <c r="R13" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="S13" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="T13" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="U13" s="30" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
@@ -2492,19 +2463,19 @@
         <v>121</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>123</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>239</v>
+        <v>201</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>210</v>
       </c>
       <c r="H14" s="24">
         <v>12</v>
@@ -2512,8 +2483,8 @@
       <c r="I14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="27" t="s">
-        <v>240</v>
+      <c r="J14" s="65" t="s">
+        <v>211</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>20</v>
@@ -2526,25 +2497,25 @@
         <v>44</v>
       </c>
       <c r="O14" s="23" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="P14" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="Q14" s="34">
+      <c r="Q14" s="30">
         <v>6</v>
       </c>
-      <c r="R14" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="S14" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="T14" s="47" t="s">
-        <v>277</v>
-      </c>
-      <c r="U14" s="34" t="s">
-        <v>263</v>
+      <c r="R14" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="S14" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="T14" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="U14" s="30" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
@@ -2555,7 +2526,7 @@
         <v>121</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>123</v>
@@ -2564,17 +2535,17 @@
         <v>129</v>
       </c>
       <c r="F15" s="23"/>
-      <c r="G15" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="H15" s="38">
+      <c r="G15" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="H15" s="34">
         <v>13</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="27" t="s">
-        <v>242</v>
+      <c r="J15" s="65" t="s">
+        <v>298</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>20</v>
@@ -2587,25 +2558,25 @@
         <v>120</v>
       </c>
       <c r="O15" s="23" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="P15" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="34">
+      <c r="Q15" s="30">
         <v>6</v>
       </c>
-      <c r="R15" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="S15" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="T15" s="47" t="s">
-        <v>278</v>
-      </c>
-      <c r="U15" s="34" t="s">
-        <v>263</v>
+      <c r="R15" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="S15" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="T15" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="U15" s="30" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
@@ -2616,7 +2587,7 @@
         <v>121</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>123</v>
@@ -2625,8 +2596,8 @@
         <v>129</v>
       </c>
       <c r="F16" s="23"/>
-      <c r="G16" s="18" t="s">
-        <v>244</v>
+      <c r="G16" s="36" t="s">
+        <v>214</v>
       </c>
       <c r="H16" s="24">
         <v>14</v>
@@ -2634,8 +2605,8 @@
       <c r="I16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="27" t="s">
-        <v>245</v>
+      <c r="J16" s="65" t="s">
+        <v>299</v>
       </c>
       <c r="K16" s="12" t="s">
         <v>20</v>
@@ -2648,28 +2619,28 @@
       </c>
       <c r="N16" s="6"/>
       <c r="O16" s="23" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="P16" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="34">
+      <c r="Q16" s="30">
         <v>6</v>
       </c>
-      <c r="R16" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="S16" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="T16" s="47" t="s">
-        <v>281</v>
-      </c>
-      <c r="U16" s="34" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="63" x14ac:dyDescent="0.25">
+      <c r="R16" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="S16" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="T16" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="U16" s="30" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
@@ -2677,16 +2648,16 @@
         <v>121</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="E17" s="25" t="s">
         <v>130</v>
       </c>
       <c r="F17" s="23"/>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="36" t="s">
         <v>144</v>
       </c>
       <c r="H17" s="24">
@@ -2695,8 +2666,8 @@
       <c r="I17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="27" t="s">
-        <v>146</v>
+      <c r="J17" s="65" t="s">
+        <v>300</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>19</v>
@@ -2707,28 +2678,28 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="23" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="P17" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="34">
+      <c r="Q17" s="30">
         <v>8</v>
       </c>
-      <c r="R17" s="35" t="s">
+      <c r="R17" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="S17" s="36" t="s">
+      <c r="S17" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="T17" s="47" t="s">
+      <c r="T17" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="U17" s="34" t="s">
+      <c r="U17" s="30" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
@@ -2736,17 +2707,17 @@
         <v>121</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>130</v>
       </c>
       <c r="F18" s="23"/>
-      <c r="G18" s="26" t="s">
-        <v>150</v>
+      <c r="G18" s="36" t="s">
+        <v>148</v>
       </c>
       <c r="H18" s="24">
         <v>16</v>
@@ -2754,8 +2725,8 @@
       <c r="I18" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="27" t="s">
-        <v>151</v>
+      <c r="J18" s="65" t="s">
+        <v>301</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>19</v>
@@ -2766,24 +2737,24 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="23" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="P18" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="34">
+      <c r="Q18" s="30">
         <v>8</v>
       </c>
-      <c r="R18" s="35" t="s">
+      <c r="R18" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="S18" s="36" t="s">
+      <c r="S18" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="T18" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="U18" s="34" t="s">
+      <c r="T18" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="U18" s="30" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2795,26 +2766,26 @@
         <v>121</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="E19" s="25" t="s">
         <v>130</v>
       </c>
       <c r="F19" s="23"/>
-      <c r="G19" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="H19" s="38">
+      <c r="G19" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="H19" s="34">
         <v>17</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="27" t="s">
-        <v>200</v>
+      <c r="J19" s="65" t="s">
+        <v>302</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>19</v>
@@ -2825,24 +2796,24 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="23" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="P19" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="34">
+      <c r="Q19" s="30">
         <v>8</v>
       </c>
-      <c r="R19" s="35" t="s">
+      <c r="R19" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="S19" s="36" t="s">
+      <c r="S19" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="T19" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="U19" s="34" t="s">
+      <c r="T19" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="U19" s="30" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2854,17 +2825,17 @@
         <v>121</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="E20" s="22" t="s">
         <v>132</v>
       </c>
       <c r="F20" s="23"/>
-      <c r="G20" s="26" t="s">
-        <v>148</v>
+      <c r="G20" s="36" t="s">
+        <v>147</v>
       </c>
       <c r="H20" s="24">
         <v>18</v>
@@ -2872,8 +2843,8 @@
       <c r="I20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="27" t="s">
-        <v>149</v>
+      <c r="J20" s="65" t="s">
+        <v>303</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>19</v>
@@ -2884,24 +2855,24 @@
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="23" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="P20" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="34">
+      <c r="Q20" s="30">
         <v>8</v>
       </c>
-      <c r="R20" s="35" t="s">
+      <c r="R20" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="S20" s="36" t="s">
+      <c r="S20" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="T20" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="U20" s="34" t="s">
+      <c r="T20" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="U20" s="30" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2913,17 +2884,17 @@
         <v>121</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="E21" s="22" t="s">
         <v>132</v>
       </c>
       <c r="F21" s="23"/>
-      <c r="G21" s="33" t="s">
-        <v>302</v>
+      <c r="G21" s="36" t="s">
+        <v>267</v>
       </c>
       <c r="H21" s="24">
         <v>19</v>
@@ -2931,8 +2902,8 @@
       <c r="I21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="42" t="s">
-        <v>213</v>
+      <c r="J21" s="65" t="s">
+        <v>304</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>19</v>
@@ -2943,24 +2914,24 @@
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="23" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="P21" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="34">
+      <c r="Q21" s="30">
         <v>8</v>
       </c>
-      <c r="R21" s="35" t="s">
+      <c r="R21" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="S21" s="36" t="s">
+      <c r="S21" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="T21" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="U21" s="34" t="s">
+      <c r="T21" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="U21" s="30" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2972,15 +2943,15 @@
         <v>121</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="D22" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="29" t="s">
         <v>131</v>
       </c>
       <c r="E22" s="22"/>
       <c r="F22" s="23"/>
-      <c r="G22" s="33" t="s">
-        <v>165</v>
+      <c r="G22" s="36" t="s">
+        <v>161</v>
       </c>
       <c r="H22" s="24">
         <v>20</v>
@@ -2988,8 +2959,8 @@
       <c r="I22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="27" t="s">
-        <v>166</v>
+      <c r="J22" s="65" t="s">
+        <v>162</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>19</v>
@@ -3000,25 +2971,25 @@
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="23" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="P22" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="34">
+      <c r="Q22" s="30">
         <v>7</v>
       </c>
-      <c r="R22" s="35" t="s">
+      <c r="R22" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="S22" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="T22" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="U22" s="34" t="s">
-        <v>168</v>
+      <c r="S22" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="T22" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="U22" s="30" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -3029,24 +3000,24 @@
         <v>121</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="D23" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" s="29" t="s">
         <v>131</v>
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="23"/>
-      <c r="G23" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="H23" s="38">
+      <c r="G23" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="H23" s="34">
         <v>21</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="27" t="s">
-        <v>157</v>
+      <c r="J23" s="65" t="s">
+        <v>305</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>19</v>
@@ -3056,26 +3027,26 @@
       </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
-      <c r="O23" s="43" t="s">
-        <v>216</v>
+      <c r="O23" s="37" t="s">
+        <v>193</v>
       </c>
       <c r="P23" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="Q23" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="R23" s="35" t="s">
+      <c r="Q23" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="R23" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="S23" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="T23" s="47" t="s">
+      <c r="S23" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="T23" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="U23" s="30" t="s">
         <v>153</v>
-      </c>
-      <c r="U23" s="34" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -3086,15 +3057,15 @@
         <v>121</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="D24" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D24" s="29" t="s">
         <v>131</v>
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="23"/>
-      <c r="G24" s="28" t="s">
-        <v>181</v>
+      <c r="G24" s="36" t="s">
+        <v>280</v>
       </c>
       <c r="H24" s="24">
         <v>22</v>
@@ -3102,8 +3073,8 @@
       <c r="I24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="27" t="s">
-        <v>161</v>
+      <c r="J24" s="65" t="s">
+        <v>157</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>19</v>
@@ -3113,26 +3084,26 @@
       </c>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
-      <c r="O24" s="43" t="s">
-        <v>216</v>
+      <c r="O24" s="37" t="s">
+        <v>193</v>
       </c>
       <c r="P24" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="34">
+      <c r="Q24" s="30">
         <v>8</v>
       </c>
-      <c r="R24" s="35" t="s">
+      <c r="R24" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="S24" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="T24" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="U24" s="34" t="s">
-        <v>160</v>
+      <c r="S24" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="T24" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="U24" s="30" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -3143,15 +3114,15 @@
         <v>121</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="D25" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" s="29" t="s">
         <v>131</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="23"/>
-      <c r="G25" s="26" t="s">
-        <v>162</v>
+      <c r="G25" s="36" t="s">
+        <v>281</v>
       </c>
       <c r="H25" s="24">
         <v>23</v>
@@ -3159,8 +3130,8 @@
       <c r="I25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="27" t="s">
-        <v>303</v>
+      <c r="J25" s="65" t="s">
+        <v>306</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>19</v>
@@ -3170,26 +3141,26 @@
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="43" t="s">
-        <v>216</v>
+      <c r="O25" s="37" t="s">
+        <v>193</v>
       </c>
       <c r="P25" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="34">
+      <c r="Q25" s="30">
         <v>8</v>
       </c>
-      <c r="R25" s="35" t="s">
+      <c r="R25" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="S25" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="T25" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="U25" s="34" t="s">
-        <v>164</v>
+      <c r="S25" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="T25" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="U25" s="30" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="66" customHeight="1" x14ac:dyDescent="0.25">
@@ -3200,17 +3171,17 @@
         <v>121</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="D26" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" s="29" t="s">
         <v>131</v>
       </c>
       <c r="E26" s="22" t="s">
         <v>132</v>
       </c>
       <c r="F26" s="23"/>
-      <c r="G26" s="26" t="s">
-        <v>304</v>
+      <c r="G26" s="36" t="s">
+        <v>268</v>
       </c>
       <c r="H26" s="24">
         <v>24</v>
@@ -3218,8 +3189,8 @@
       <c r="I26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="27" t="s">
-        <v>203</v>
+      <c r="J26" s="65" t="s">
+        <v>185</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>20</v>
@@ -3231,26 +3202,26 @@
       <c r="N26" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="O26" s="43" t="s">
-        <v>305</v>
+      <c r="O26" s="37" t="s">
+        <v>269</v>
       </c>
       <c r="P26" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="34">
+      <c r="Q26" s="30">
         <v>6</v>
       </c>
-      <c r="R26" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="S26" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="T26" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="U26" s="34" t="s">
-        <v>263</v>
+      <c r="R26" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="S26" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="T26" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="U26" s="30" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3261,26 +3232,26 @@
         <v>121</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E27" s="25" t="s">
         <v>133</v>
       </c>
       <c r="F27" s="23"/>
-      <c r="G27" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="H27" s="38">
+      <c r="G27" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="H27" s="34">
         <v>25</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="27" t="s">
-        <v>172</v>
+      <c r="J27" s="65" t="s">
+        <v>307</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>19</v>
@@ -3293,28 +3264,28 @@
       </c>
       <c r="N27" s="6"/>
       <c r="O27" s="23" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="P27" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="34">
+      <c r="Q27" s="30">
         <v>7</v>
       </c>
-      <c r="R27" s="35" t="s">
+      <c r="R27" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="S27" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="T27" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="U27" s="34" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="S27" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="T27" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="U27" s="30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>16</v>
       </c>
@@ -3322,17 +3293,17 @@
         <v>121</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E28" s="22" t="s">
         <v>134</v>
       </c>
       <c r="F28" s="23"/>
-      <c r="G28" s="18" t="s">
-        <v>217</v>
+      <c r="G28" s="36" t="s">
+        <v>194</v>
       </c>
       <c r="H28" s="24">
         <v>26</v>
@@ -3340,8 +3311,8 @@
       <c r="I28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J28" s="27" t="s">
-        <v>201</v>
+      <c r="J28" s="65" t="s">
+        <v>308</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>20</v>
@@ -3354,25 +3325,25 @@
         <v>36</v>
       </c>
       <c r="O28" s="23" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="P28" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="34">
+      <c r="Q28" s="30">
         <v>6</v>
       </c>
-      <c r="R28" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="S28" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="T28" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="U28" s="34" t="s">
-        <v>263</v>
+      <c r="R28" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="S28" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="T28" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="U28" s="30" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
@@ -3383,17 +3354,17 @@
         <v>121</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E29" s="25" t="s">
         <v>135</v>
       </c>
       <c r="F29" s="23"/>
-      <c r="G29" s="18" t="s">
-        <v>202</v>
+      <c r="G29" s="36" t="s">
+        <v>282</v>
       </c>
       <c r="H29" s="24">
         <v>27</v>
@@ -3401,8 +3372,8 @@
       <c r="I29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="27" t="s">
-        <v>204</v>
+      <c r="J29" s="65" t="s">
+        <v>186</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>20</v>
@@ -3415,28 +3386,28 @@
         <v>24</v>
       </c>
       <c r="O29" s="23" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="P29" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="Q29" s="34">
+      <c r="Q29" s="30">
         <v>6</v>
       </c>
-      <c r="R29" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="S29" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="T29" s="47" t="s">
-        <v>283</v>
-      </c>
-      <c r="U29" s="34" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="R29" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="S29" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="T29" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="U29" s="30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>16</v>
       </c>
@@ -3444,17 +3415,17 @@
         <v>121</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E30" s="22" t="s">
         <v>129</v>
       </c>
       <c r="F30" s="23"/>
-      <c r="G30" s="18" t="s">
-        <v>205</v>
+      <c r="G30" s="36" t="s">
+        <v>283</v>
       </c>
       <c r="H30" s="24">
         <v>28</v>
@@ -3462,8 +3433,8 @@
       <c r="I30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="27" t="s">
-        <v>211</v>
+      <c r="J30" s="65" t="s">
+        <v>309</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>20</v>
@@ -3473,31 +3444,31 @@
       </c>
       <c r="M30" s="6"/>
       <c r="N30" s="6" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="O30" s="23" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="P30" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="34">
+      <c r="Q30" s="30">
         <v>6</v>
       </c>
-      <c r="R30" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="S30" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="T30" s="47" t="s">
-        <v>280</v>
-      </c>
-      <c r="U30" s="34" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="R30" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="S30" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="T30" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="U30" s="30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>16</v>
       </c>
@@ -3505,7 +3476,7 @@
         <v>121</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>136</v>
@@ -3514,17 +3485,17 @@
         <v>137</v>
       </c>
       <c r="F31" s="23"/>
-      <c r="G31" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="H31" s="38">
+      <c r="G31" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="H31" s="34">
         <v>29</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="27" t="s">
-        <v>207</v>
+      <c r="J31" s="65" t="s">
+        <v>187</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>20</v>
@@ -3537,28 +3508,28 @@
         <v>45</v>
       </c>
       <c r="O31" s="23" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="P31" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="34">
+      <c r="Q31" s="30">
         <v>6</v>
       </c>
-      <c r="R31" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="S31" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="T31" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="U31" s="34" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="R31" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="S31" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="T31" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="U31" s="30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>16</v>
       </c>
@@ -3566,7 +3537,7 @@
         <v>121</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>136</v>
@@ -3575,8 +3546,8 @@
         <v>138</v>
       </c>
       <c r="F32" s="23"/>
-      <c r="G32" s="41" t="s">
-        <v>183</v>
+      <c r="G32" s="36" t="s">
+        <v>169</v>
       </c>
       <c r="H32" s="24">
         <v>30</v>
@@ -3584,8 +3555,8 @@
       <c r="I32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="27" t="s">
-        <v>208</v>
+      <c r="J32" s="65" t="s">
+        <v>310</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>19</v>
@@ -3598,28 +3569,28 @@
       </c>
       <c r="N32" s="6"/>
       <c r="O32" s="23" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="P32" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="34">
+      <c r="Q32" s="30">
         <v>8</v>
       </c>
-      <c r="R32" s="35" t="s">
+      <c r="R32" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="S32" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="T32" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="U32" s="34" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="S32" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="T32" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="U32" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>16</v>
       </c>
@@ -3627,7 +3598,7 @@
         <v>121</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>136</v>
@@ -3636,8 +3607,8 @@
         <v>129</v>
       </c>
       <c r="F33" s="23"/>
-      <c r="G33" s="26" t="s">
-        <v>184</v>
+      <c r="G33" s="36" t="s">
+        <v>285</v>
       </c>
       <c r="H33" s="24">
         <v>31</v>
@@ -3645,8 +3616,8 @@
       <c r="I33" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="27" t="s">
-        <v>212</v>
+      <c r="J33" s="65" t="s">
+        <v>190</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>20</v>
@@ -3659,28 +3630,28 @@
         <v>120</v>
       </c>
       <c r="O33" s="23" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="P33" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="34">
+      <c r="Q33" s="30">
         <v>6</v>
       </c>
-      <c r="R33" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="S33" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="T33" s="47" t="s">
-        <v>312</v>
-      </c>
-      <c r="U33" s="34" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="R33" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="S33" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="T33" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="U33" s="30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>16</v>
       </c>
@@ -3688,15 +3659,15 @@
         <v>121</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>139</v>
       </c>
       <c r="E34" s="22"/>
       <c r="F34" s="23"/>
-      <c r="G34" s="18" t="s">
-        <v>185</v>
+      <c r="G34" s="36" t="s">
+        <v>286</v>
       </c>
       <c r="H34" s="24">
         <v>32</v>
@@ -3704,8 +3675,8 @@
       <c r="I34" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="27" t="s">
-        <v>308</v>
+      <c r="J34" s="65" t="s">
+        <v>311</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>20</v>
@@ -3718,28 +3689,28 @@
         <v>33</v>
       </c>
       <c r="O34" s="23" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="P34" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="34">
+      <c r="Q34" s="30">
         <v>6</v>
       </c>
-      <c r="R34" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="S34" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="T34" s="47" t="s">
-        <v>285</v>
-      </c>
-      <c r="U34" s="34" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="R34" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="S34" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="T34" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="U34" s="30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>16</v>
       </c>
@@ -3747,24 +3718,24 @@
         <v>121</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>139</v>
       </c>
       <c r="E35" s="22"/>
       <c r="F35" s="23"/>
-      <c r="G35" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="H35" s="38">
+      <c r="G35" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="H35" s="34">
         <v>33</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="27" t="s">
-        <v>309</v>
+      <c r="J35" s="65" t="s">
+        <v>312</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>20</v>
@@ -3777,28 +3748,28 @@
         <v>47</v>
       </c>
       <c r="O35" s="23" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="P35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q35" s="34">
+      <c r="Q35" s="30">
         <v>6</v>
       </c>
-      <c r="R35" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="S35" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="T35" s="47" t="s">
-        <v>286</v>
-      </c>
-      <c r="U35" s="34" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="R35" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="S35" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="T35" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="U35" s="30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>16</v>
       </c>
@@ -3806,15 +3777,15 @@
         <v>121</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>139</v>
       </c>
       <c r="E36" s="22"/>
       <c r="F36" s="23"/>
-      <c r="G36" s="18" t="s">
-        <v>248</v>
+      <c r="G36" s="36" t="s">
+        <v>288</v>
       </c>
       <c r="H36" s="24">
         <v>34</v>
@@ -3822,8 +3793,8 @@
       <c r="I36" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="27" t="s">
-        <v>249</v>
+      <c r="J36" s="65" t="s">
+        <v>216</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>20</v>
@@ -3836,28 +3807,28 @@
         <v>38</v>
       </c>
       <c r="O36" s="23" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="P36" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="34">
+      <c r="Q36" s="30">
         <v>6</v>
       </c>
-      <c r="R36" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="S36" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="T36" s="47" t="s">
-        <v>287</v>
-      </c>
-      <c r="U36" s="34" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="R36" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="S36" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="T36" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="U36" s="30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>16</v>
       </c>
@@ -3865,15 +3836,15 @@
         <v>121</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>139</v>
       </c>
       <c r="E37" s="22"/>
       <c r="F37" s="23"/>
-      <c r="G37" s="18" t="s">
-        <v>186</v>
+      <c r="G37" s="36" t="s">
+        <v>289</v>
       </c>
       <c r="H37" s="24">
         <v>35</v>
@@ -3881,8 +3852,8 @@
       <c r="I37" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="27" t="s">
-        <v>251</v>
+      <c r="J37" s="65" t="s">
+        <v>313</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>20</v>
@@ -3895,28 +3866,28 @@
         <v>43</v>
       </c>
       <c r="O37" s="23" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="P37" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q37" s="34">
+      <c r="Q37" s="30">
         <v>6</v>
       </c>
-      <c r="R37" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="S37" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="T37" s="47" t="s">
-        <v>288</v>
-      </c>
-      <c r="U37" s="34" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="R37" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="S37" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="T37" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="U37" s="30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>16</v>
       </c>
@@ -3924,15 +3895,15 @@
         <v>121</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>139</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="23"/>
-      <c r="G38" s="18" t="s">
-        <v>192</v>
+      <c r="G38" s="36" t="s">
+        <v>290</v>
       </c>
       <c r="H38" s="24">
         <v>36</v>
@@ -3940,8 +3911,8 @@
       <c r="I38" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="27" t="s">
-        <v>219</v>
+      <c r="J38" s="65" t="s">
+        <v>196</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>20</v>
@@ -3954,25 +3925,25 @@
         <v>46</v>
       </c>
       <c r="O38" s="23" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="P38" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q38" s="34">
+      <c r="Q38" s="30">
         <v>6</v>
       </c>
-      <c r="R38" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="S38" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="T38" s="47" t="s">
-        <v>289</v>
-      </c>
-      <c r="U38" s="34" t="s">
-        <v>263</v>
+      <c r="R38" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="S38" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="T38" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="U38" s="30" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
@@ -3983,24 +3954,24 @@
         <v>121</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="E39" s="22"/>
       <c r="F39" s="23"/>
       <c r="G39" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="H39" s="38">
+      <c r="H39" s="34">
         <v>37</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="27" t="s">
-        <v>189</v>
+      <c r="J39" s="65" t="s">
+        <v>176</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>20</v>
@@ -4012,13 +3983,13 @@
       <c r="N39" s="6"/>
       <c r="O39" s="23"/>
       <c r="P39" s="24"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="35"/>
-      <c r="S39" s="36"/>
-      <c r="T39" s="47"/>
-      <c r="U39" s="34"/>
-    </row>
-    <row r="40" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="Q39" s="30"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="30"/>
+    </row>
+    <row r="40" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>16</v>
       </c>
@@ -4026,14 +3997,14 @@
         <v>121</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="E40" s="22"/>
       <c r="F40" s="23"/>
-      <c r="G40" s="40" t="s">
+      <c r="G40" s="36" t="s">
         <v>141</v>
       </c>
       <c r="H40" s="24">
@@ -4042,8 +4013,8 @@
       <c r="I40" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="27" t="s">
-        <v>190</v>
+      <c r="J40" s="65" t="s">
+        <v>177</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>20</v>
@@ -4056,25 +4027,25 @@
         <v>32</v>
       </c>
       <c r="O40" s="23" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="P40" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q40" s="34">
+      <c r="Q40" s="30">
         <v>6</v>
       </c>
-      <c r="R40" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="S40" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="T40" s="47" t="s">
-        <v>311</v>
-      </c>
-      <c r="U40" s="34" t="s">
-        <v>263</v>
+      <c r="R40" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="S40" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="T40" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="U40" s="30" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
@@ -4085,15 +4056,15 @@
         <v>121</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="D41" s="39" t="s">
-        <v>187</v>
+        <v>174</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>175</v>
       </c>
       <c r="E41" s="22"/>
       <c r="F41" s="23"/>
       <c r="G41" s="18" t="s">
-        <v>188</v>
+        <v>291</v>
       </c>
       <c r="H41" s="24">
         <v>39</v>
@@ -4101,8 +4072,8 @@
       <c r="I41" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J41" s="27" t="s">
-        <v>191</v>
+      <c r="J41" s="65" t="s">
+        <v>178</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>20</v>
@@ -4115,25 +4086,25 @@
         <v>52</v>
       </c>
       <c r="O41" s="23" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="P41" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="Q41" s="34">
+      <c r="Q41" s="30">
         <v>6</v>
       </c>
-      <c r="R41" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="S41" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="T41" s="47" t="s">
-        <v>290</v>
-      </c>
-      <c r="U41" s="34" t="s">
-        <v>263</v>
+      <c r="R41" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="S41" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="T41" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="U41" s="30" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
@@ -4145,7 +4116,7 @@
     <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D49" s="21"/>
       <c r="F49" s="21"/>
-      <c r="H49" s="37"/>
+      <c r="H49" s="33"/>
       <c r="I49" s="21"/>
       <c r="O49" s="21"/>
       <c r="P49" s="21"/>
@@ -4154,7 +4125,7 @@
     <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D50" s="21"/>
       <c r="F50" s="21"/>
-      <c r="H50" s="37"/>
+      <c r="H50" s="33"/>
       <c r="I50" s="21"/>
       <c r="O50" s="21"/>
       <c r="P50" s="21"/>
@@ -4163,7 +4134,7 @@
     <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D51" s="21"/>
       <c r="F51" s="21"/>
-      <c r="H51" s="37"/>
+      <c r="H51" s="33"/>
       <c r="I51" s="21"/>
       <c r="O51" s="21"/>
       <c r="P51" s="21"/>
@@ -4172,7 +4143,7 @@
     <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D52" s="21"/>
       <c r="F52" s="21"/>
-      <c r="H52" s="37"/>
+      <c r="H52" s="33"/>
       <c r="I52" s="21"/>
       <c r="O52" s="21"/>
       <c r="P52" s="21"/>
@@ -4181,7 +4152,7 @@
     <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D53" s="21"/>
       <c r="F53" s="21"/>
-      <c r="H53" s="37"/>
+      <c r="H53" s="33"/>
       <c r="I53" s="21"/>
       <c r="O53" s="21"/>
       <c r="P53" s="21"/>
@@ -4190,7 +4161,7 @@
     <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D54" s="21"/>
       <c r="F54" s="21"/>
-      <c r="H54" s="37"/>
+      <c r="H54" s="33"/>
       <c r="I54" s="21"/>
       <c r="O54" s="21"/>
       <c r="P54" s="21"/>
@@ -4199,7 +4170,7 @@
     <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D55" s="21"/>
       <c r="F55" s="21"/>
-      <c r="H55" s="37"/>
+      <c r="H55" s="33"/>
       <c r="I55" s="21"/>
       <c r="O55" s="21"/>
       <c r="P55" s="21"/>
@@ -4211,7 +4182,7 @@
       </c>
       <c r="D56" s="21"/>
       <c r="F56" s="21"/>
-      <c r="H56" s="37"/>
+      <c r="H56" s="33"/>
       <c r="I56" s="21"/>
       <c r="O56" s="21"/>
       <c r="P56" s="21"/>
@@ -4223,7 +4194,7 @@
       </c>
       <c r="D57" s="21"/>
       <c r="F57" s="21"/>
-      <c r="H57" s="37"/>
+      <c r="H57" s="33"/>
       <c r="I57" s="21"/>
       <c r="O57" s="21"/>
       <c r="P57" s="21"/>
@@ -4235,7 +4206,7 @@
       </c>
       <c r="D58" s="21"/>
       <c r="F58" s="21"/>
-      <c r="H58" s="37"/>
+      <c r="H58" s="33"/>
       <c r="I58" s="21"/>
       <c r="O58" s="21"/>
       <c r="P58" s="21"/>
@@ -4247,7 +4218,7 @@
       </c>
       <c r="D59" s="21"/>
       <c r="F59" s="21"/>
-      <c r="H59" s="37"/>
+      <c r="H59" s="33"/>
       <c r="I59" s="21"/>
       <c r="O59" s="21"/>
       <c r="P59" s="21"/>
@@ -4259,7 +4230,7 @@
       </c>
       <c r="D60" s="21"/>
       <c r="F60" s="21"/>
-      <c r="H60" s="37"/>
+      <c r="H60" s="33"/>
       <c r="I60" s="21"/>
       <c r="O60" s="21"/>
       <c r="P60" s="21"/>
@@ -4271,7 +4242,7 @@
       </c>
       <c r="D61" s="21"/>
       <c r="F61" s="21"/>
-      <c r="H61" s="37"/>
+      <c r="H61" s="33"/>
       <c r="I61" s="21"/>
       <c r="O61" s="21"/>
       <c r="P61" s="21"/>
@@ -4283,7 +4254,7 @@
       </c>
       <c r="D62" s="21"/>
       <c r="F62" s="21"/>
-      <c r="H62" s="37"/>
+      <c r="H62" s="33"/>
       <c r="I62" s="21"/>
       <c r="O62" s="21"/>
       <c r="P62" s="21"/>
@@ -4295,7 +4266,7 @@
       </c>
       <c r="D63" s="21"/>
       <c r="F63" s="21"/>
-      <c r="H63" s="37"/>
+      <c r="H63" s="33"/>
       <c r="I63" s="21"/>
       <c r="O63" s="21"/>
       <c r="P63" s="21"/>
@@ -4307,7 +4278,7 @@
       </c>
       <c r="D64" s="21"/>
       <c r="F64" s="21"/>
-      <c r="H64" s="37"/>
+      <c r="H64" s="33"/>
       <c r="I64" s="21"/>
       <c r="O64" s="21"/>
       <c r="P64" s="21"/>
@@ -4319,7 +4290,7 @@
       </c>
       <c r="D65" s="21"/>
       <c r="F65" s="21"/>
-      <c r="H65" s="37"/>
+      <c r="H65" s="33"/>
       <c r="I65" s="21"/>
       <c r="O65" s="21"/>
       <c r="P65" s="21"/>
@@ -4331,7 +4302,7 @@
       </c>
       <c r="D66" s="21"/>
       <c r="F66" s="21"/>
-      <c r="H66" s="37"/>
+      <c r="H66" s="33"/>
       <c r="I66" s="21"/>
       <c r="O66" s="21"/>
       <c r="P66" s="21"/>
@@ -4343,7 +4314,7 @@
       </c>
       <c r="D67" s="21"/>
       <c r="F67" s="21"/>
-      <c r="H67" s="37"/>
+      <c r="H67" s="33"/>
       <c r="I67" s="21"/>
       <c r="O67" s="21"/>
       <c r="P67" s="21"/>
@@ -4355,7 +4326,7 @@
       </c>
       <c r="D68" s="21"/>
       <c r="F68" s="21"/>
-      <c r="H68" s="37"/>
+      <c r="H68" s="33"/>
       <c r="I68" s="21"/>
       <c r="O68" s="21"/>
       <c r="P68" s="21"/>
@@ -4367,7 +4338,7 @@
       </c>
       <c r="D69" s="21"/>
       <c r="F69" s="21"/>
-      <c r="H69" s="37"/>
+      <c r="H69" s="33"/>
       <c r="I69" s="21"/>
       <c r="O69" s="21"/>
       <c r="P69" s="21"/>
@@ -4379,7 +4350,7 @@
       </c>
       <c r="D70" s="21"/>
       <c r="F70" s="21"/>
-      <c r="H70" s="37"/>
+      <c r="H70" s="33"/>
       <c r="I70" s="21"/>
       <c r="O70" s="21"/>
       <c r="P70" s="21"/>
@@ -4391,7 +4362,7 @@
       </c>
       <c r="D71" s="21"/>
       <c r="F71" s="21"/>
-      <c r="H71" s="37"/>
+      <c r="H71" s="33"/>
       <c r="I71" s="21"/>
       <c r="O71" s="21"/>
       <c r="P71" s="21"/>
@@ -4403,7 +4374,7 @@
       </c>
       <c r="D72" s="21"/>
       <c r="F72" s="21"/>
-      <c r="H72" s="37"/>
+      <c r="H72" s="33"/>
       <c r="I72" s="21"/>
       <c r="O72" s="21"/>
       <c r="P72" s="21"/>
@@ -4415,7 +4386,7 @@
       </c>
       <c r="D73" s="21"/>
       <c r="F73" s="21"/>
-      <c r="H73" s="37"/>
+      <c r="H73" s="33"/>
       <c r="I73" s="21"/>
       <c r="O73" s="21"/>
       <c r="P73" s="21"/>
@@ -4427,7 +4398,7 @@
       </c>
       <c r="D74" s="21"/>
       <c r="F74" s="21"/>
-      <c r="H74" s="37"/>
+      <c r="H74" s="33"/>
       <c r="I74" s="21"/>
       <c r="O74" s="21"/>
       <c r="P74" s="21"/>
@@ -4439,7 +4410,7 @@
       </c>
       <c r="D75" s="21"/>
       <c r="F75" s="21"/>
-      <c r="H75" s="37"/>
+      <c r="H75" s="33"/>
       <c r="I75" s="21"/>
       <c r="O75" s="21"/>
       <c r="P75" s="21"/>
@@ -4451,7 +4422,7 @@
       </c>
       <c r="D76" s="21"/>
       <c r="F76" s="21"/>
-      <c r="H76" s="37"/>
+      <c r="H76" s="33"/>
       <c r="I76" s="21"/>
       <c r="O76" s="21"/>
       <c r="P76" s="21"/>
@@ -4463,7 +4434,7 @@
       </c>
       <c r="D77" s="21"/>
       <c r="F77" s="21"/>
-      <c r="H77" s="37"/>
+      <c r="H77" s="33"/>
       <c r="I77" s="21"/>
       <c r="O77" s="21"/>
       <c r="P77" s="21"/>
@@ -4475,7 +4446,7 @@
       </c>
       <c r="D78" s="21"/>
       <c r="F78" s="21"/>
-      <c r="H78" s="37"/>
+      <c r="H78" s="33"/>
       <c r="I78" s="21"/>
       <c r="O78" s="21"/>
       <c r="P78" s="21"/>
@@ -4487,7 +4458,7 @@
       </c>
       <c r="D79" s="21"/>
       <c r="F79" s="21"/>
-      <c r="H79" s="37"/>
+      <c r="H79" s="33"/>
       <c r="I79" s="21"/>
       <c r="O79" s="21"/>
       <c r="P79" s="21"/>
@@ -4499,7 +4470,7 @@
       </c>
       <c r="D80" s="21"/>
       <c r="F80" s="21"/>
-      <c r="H80" s="37"/>
+      <c r="H80" s="33"/>
       <c r="I80" s="21"/>
       <c r="O80" s="21"/>
       <c r="P80" s="21"/>
@@ -4511,7 +4482,7 @@
       </c>
       <c r="D81" s="21"/>
       <c r="F81" s="21"/>
-      <c r="H81" s="37"/>
+      <c r="H81" s="33"/>
       <c r="I81" s="21"/>
       <c r="O81" s="21"/>
       <c r="P81" s="21"/>
@@ -4523,7 +4494,7 @@
       </c>
       <c r="D82" s="21"/>
       <c r="F82" s="21"/>
-      <c r="H82" s="37"/>
+      <c r="H82" s="33"/>
       <c r="I82" s="21"/>
       <c r="O82" s="21"/>
       <c r="P82" s="21"/>
@@ -4535,7 +4506,7 @@
       </c>
       <c r="D83" s="21"/>
       <c r="F83" s="21"/>
-      <c r="H83" s="37"/>
+      <c r="H83" s="33"/>
       <c r="I83" s="21"/>
       <c r="O83" s="21"/>
       <c r="P83" s="21"/>
@@ -4547,7 +4518,7 @@
       </c>
       <c r="D84" s="21"/>
       <c r="F84" s="21"/>
-      <c r="H84" s="37"/>
+      <c r="H84" s="33"/>
       <c r="I84" s="21"/>
       <c r="O84" s="21"/>
       <c r="P84" s="21"/>
@@ -4559,7 +4530,7 @@
       </c>
       <c r="D85" s="21"/>
       <c r="F85" s="21"/>
-      <c r="H85" s="37"/>
+      <c r="H85" s="33"/>
       <c r="I85" s="21"/>
       <c r="O85" s="21"/>
       <c r="P85" s="21"/>
@@ -4571,7 +4542,7 @@
       </c>
       <c r="D86" s="21"/>
       <c r="F86" s="21"/>
-      <c r="H86" s="37"/>
+      <c r="H86" s="33"/>
       <c r="I86" s="21"/>
       <c r="O86" s="21"/>
       <c r="P86" s="21"/>
@@ -4583,7 +4554,7 @@
       </c>
       <c r="D87" s="21"/>
       <c r="F87" s="21"/>
-      <c r="H87" s="37"/>
+      <c r="H87" s="33"/>
       <c r="I87" s="21"/>
       <c r="O87" s="21"/>
       <c r="P87" s="21"/>
@@ -4595,7 +4566,7 @@
       </c>
       <c r="D88" s="21"/>
       <c r="F88" s="21"/>
-      <c r="H88" s="37"/>
+      <c r="H88" s="33"/>
       <c r="I88" s="21"/>
       <c r="O88" s="21"/>
       <c r="P88" s="21"/>
@@ -4607,7 +4578,7 @@
       </c>
       <c r="D89" s="21"/>
       <c r="F89" s="21"/>
-      <c r="H89" s="37"/>
+      <c r="H89" s="33"/>
       <c r="I89" s="21"/>
       <c r="O89" s="21"/>
       <c r="P89" s="21"/>
@@ -4619,7 +4590,7 @@
       </c>
       <c r="D90" s="21"/>
       <c r="F90" s="21"/>
-      <c r="H90" s="37"/>
+      <c r="H90" s="33"/>
       <c r="I90" s="21"/>
       <c r="O90" s="21"/>
       <c r="P90" s="21"/>
@@ -4631,7 +4602,7 @@
       </c>
       <c r="D91" s="21"/>
       <c r="F91" s="21"/>
-      <c r="H91" s="37"/>
+      <c r="H91" s="33"/>
       <c r="I91" s="21"/>
       <c r="O91" s="21"/>
       <c r="P91" s="21"/>
@@ -4643,7 +4614,7 @@
       </c>
       <c r="D92" s="21"/>
       <c r="F92" s="21"/>
-      <c r="H92" s="37"/>
+      <c r="H92" s="33"/>
       <c r="I92" s="21"/>
       <c r="O92" s="21"/>
       <c r="P92" s="21"/>
@@ -4652,7 +4623,7 @@
     <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D93" s="21"/>
       <c r="F93" s="21"/>
-      <c r="H93" s="37"/>
+      <c r="H93" s="33"/>
       <c r="I93" s="21"/>
       <c r="O93" s="21"/>
       <c r="P93" s="21"/>
@@ -4661,7 +4632,7 @@
     <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D94" s="21"/>
       <c r="F94" s="21"/>
-      <c r="H94" s="37"/>
+      <c r="H94" s="33"/>
       <c r="I94" s="21"/>
       <c r="O94" s="21"/>
       <c r="P94" s="21"/>
@@ -4670,7 +4641,7 @@
     <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D95" s="21"/>
       <c r="F95" s="21"/>
-      <c r="H95" s="37"/>
+      <c r="H95" s="33"/>
       <c r="I95" s="21"/>
       <c r="O95" s="21"/>
       <c r="P95" s="21"/>
@@ -4679,7 +4650,7 @@
     <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D96" s="21"/>
       <c r="F96" s="21"/>
-      <c r="H96" s="37"/>
+      <c r="H96" s="33"/>
       <c r="I96" s="21"/>
       <c r="O96" s="21"/>
       <c r="P96" s="21"/>
@@ -4688,7 +4659,7 @@
     <row r="97" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D97" s="21"/>
       <c r="F97" s="21"/>
-      <c r="H97" s="37"/>
+      <c r="H97" s="33"/>
       <c r="I97" s="21"/>
       <c r="O97" s="21"/>
       <c r="P97" s="21"/>
@@ -4697,7 +4668,7 @@
     <row r="98" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D98" s="21"/>
       <c r="F98" s="21"/>
-      <c r="H98" s="37"/>
+      <c r="H98" s="33"/>
       <c r="I98" s="21"/>
       <c r="O98" s="21"/>
       <c r="P98" s="21"/>
@@ -4706,7 +4677,7 @@
     <row r="99" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D99" s="21"/>
       <c r="F99" s="21"/>
-      <c r="H99" s="37"/>
+      <c r="H99" s="33"/>
       <c r="I99" s="21"/>
       <c r="O99" s="21"/>
       <c r="P99" s="21"/>
@@ -4715,7 +4686,7 @@
     <row r="100" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D100" s="21"/>
       <c r="F100" s="21"/>
-      <c r="H100" s="37"/>
+      <c r="H100" s="33"/>
       <c r="I100" s="21"/>
       <c r="O100" s="21"/>
       <c r="P100" s="21"/>
@@ -4724,7 +4695,7 @@
     <row r="101" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D101" s="21"/>
       <c r="F101" s="21"/>
-      <c r="H101" s="37"/>
+      <c r="H101" s="33"/>
       <c r="I101" s="21"/>
       <c r="O101" s="21"/>
       <c r="P101" s="21"/>
@@ -4733,7 +4704,7 @@
     <row r="102" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D102" s="21"/>
       <c r="F102" s="21"/>
-      <c r="H102" s="37"/>
+      <c r="H102" s="33"/>
       <c r="I102" s="21"/>
       <c r="O102" s="21"/>
       <c r="P102" s="21"/>
@@ -4742,7 +4713,7 @@
     <row r="103" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D103" s="21"/>
       <c r="F103" s="21"/>
-      <c r="H103" s="37"/>
+      <c r="H103" s="33"/>
       <c r="I103" s="21"/>
       <c r="O103" s="21"/>
       <c r="P103" s="21"/>
@@ -4751,7 +4722,7 @@
     <row r="104" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D104" s="21"/>
       <c r="F104" s="21"/>
-      <c r="H104" s="37"/>
+      <c r="H104" s="33"/>
       <c r="I104" s="21"/>
       <c r="O104" s="21"/>
       <c r="P104" s="21"/>
@@ -4760,7 +4731,7 @@
     <row r="105" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D105" s="21"/>
       <c r="F105" s="21"/>
-      <c r="H105" s="37"/>
+      <c r="H105" s="33"/>
       <c r="I105" s="21"/>
       <c r="O105" s="21"/>
       <c r="P105" s="21"/>
@@ -4769,7 +4740,7 @@
     <row r="106" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D106" s="21"/>
       <c r="F106" s="21"/>
-      <c r="H106" s="37"/>
+      <c r="H106" s="33"/>
       <c r="I106" s="21"/>
       <c r="O106" s="21"/>
       <c r="P106" s="21"/>
@@ -4778,7 +4749,7 @@
     <row r="107" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D107" s="21"/>
       <c r="F107" s="21"/>
-      <c r="H107" s="37"/>
+      <c r="H107" s="33"/>
       <c r="I107" s="21"/>
       <c r="O107" s="21"/>
       <c r="P107" s="21"/>
@@ -4787,7 +4758,7 @@
     <row r="108" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D108" s="21"/>
       <c r="F108" s="21"/>
-      <c r="H108" s="37"/>
+      <c r="H108" s="33"/>
       <c r="I108" s="21"/>
       <c r="O108" s="21"/>
       <c r="P108" s="21"/>
@@ -4796,7 +4767,7 @@
     <row r="109" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D109" s="21"/>
       <c r="F109" s="21"/>
-      <c r="H109" s="37"/>
+      <c r="H109" s="33"/>
       <c r="I109" s="21"/>
       <c r="O109" s="21"/>
       <c r="P109" s="21"/>
@@ -4805,7 +4776,7 @@
     <row r="110" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D110" s="21"/>
       <c r="F110" s="21"/>
-      <c r="H110" s="37"/>
+      <c r="H110" s="33"/>
       <c r="I110" s="21"/>
       <c r="O110" s="21"/>
       <c r="P110" s="21"/>
@@ -4814,7 +4785,7 @@
     <row r="111" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D111" s="21"/>
       <c r="F111" s="21"/>
-      <c r="H111" s="37"/>
+      <c r="H111" s="33"/>
       <c r="I111" s="21"/>
       <c r="O111" s="21"/>
       <c r="P111" s="21"/>
@@ -4823,7 +4794,7 @@
     <row r="112" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D112" s="21"/>
       <c r="F112" s="21"/>
-      <c r="H112" s="37"/>
+      <c r="H112" s="33"/>
       <c r="I112" s="21"/>
       <c r="O112" s="21"/>
       <c r="P112" s="21"/>
@@ -4832,7 +4803,7 @@
     <row r="113" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D113" s="21"/>
       <c r="F113" s="21"/>
-      <c r="H113" s="37"/>
+      <c r="H113" s="33"/>
       <c r="I113" s="21"/>
       <c r="O113" s="21"/>
       <c r="P113" s="21"/>
@@ -4841,7 +4812,7 @@
     <row r="114" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D114" s="21"/>
       <c r="F114" s="21"/>
-      <c r="H114" s="37"/>
+      <c r="H114" s="33"/>
       <c r="I114" s="21"/>
       <c r="O114" s="21"/>
       <c r="P114" s="21"/>
@@ -4850,7 +4821,7 @@
     <row r="115" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D115" s="21"/>
       <c r="F115" s="21"/>
-      <c r="H115" s="37"/>
+      <c r="H115" s="33"/>
       <c r="I115" s="21"/>
       <c r="O115" s="21"/>
       <c r="P115" s="21"/>
@@ -4859,7 +4830,7 @@
     <row r="116" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D116" s="21"/>
       <c r="F116" s="21"/>
-      <c r="H116" s="37"/>
+      <c r="H116" s="33"/>
       <c r="I116" s="21"/>
       <c r="O116" s="21"/>
       <c r="P116" s="21"/>
@@ -4868,7 +4839,7 @@
     <row r="117" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D117" s="21"/>
       <c r="F117" s="21"/>
-      <c r="H117" s="37"/>
+      <c r="H117" s="33"/>
       <c r="I117" s="21"/>
       <c r="O117" s="21"/>
       <c r="P117" s="21"/>
@@ -4877,7 +4848,7 @@
     <row r="118" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D118" s="21"/>
       <c r="F118" s="21"/>
-      <c r="H118" s="37"/>
+      <c r="H118" s="33"/>
       <c r="I118" s="21"/>
       <c r="O118" s="21"/>
       <c r="P118" s="21"/>
@@ -4886,7 +4857,7 @@
     <row r="119" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D119" s="21"/>
       <c r="F119" s="21"/>
-      <c r="H119" s="37"/>
+      <c r="H119" s="33"/>
       <c r="I119" s="21"/>
       <c r="O119" s="21"/>
       <c r="P119" s="21"/>
@@ -4895,7 +4866,7 @@
     <row r="120" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D120" s="21"/>
       <c r="F120" s="21"/>
-      <c r="H120" s="37"/>
+      <c r="H120" s="33"/>
       <c r="I120" s="21"/>
       <c r="O120" s="21"/>
       <c r="P120" s="21"/>
@@ -4904,7 +4875,7 @@
     <row r="121" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D121" s="21"/>
       <c r="F121" s="21"/>
-      <c r="H121" s="37"/>
+      <c r="H121" s="33"/>
       <c r="I121" s="21"/>
       <c r="O121" s="21"/>
       <c r="P121" s="21"/>
@@ -4913,7 +4884,7 @@
     <row r="122" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D122" s="21"/>
       <c r="F122" s="21"/>
-      <c r="H122" s="37"/>
+      <c r="H122" s="33"/>
       <c r="I122" s="21"/>
       <c r="O122" s="21"/>
       <c r="P122" s="21"/>
@@ -4922,7 +4893,7 @@
     <row r="123" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D123" s="21"/>
       <c r="F123" s="21"/>
-      <c r="H123" s="37"/>
+      <c r="H123" s="33"/>
       <c r="I123" s="21"/>
       <c r="O123" s="21"/>
       <c r="P123" s="21"/>
@@ -4931,7 +4902,7 @@
     <row r="124" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D124" s="21"/>
       <c r="F124" s="21"/>
-      <c r="H124" s="37"/>
+      <c r="H124" s="33"/>
       <c r="I124" s="21"/>
       <c r="O124" s="21"/>
       <c r="P124" s="21"/>
@@ -4940,7 +4911,7 @@
     <row r="125" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D125" s="21"/>
       <c r="F125" s="21"/>
-      <c r="H125" s="37"/>
+      <c r="H125" s="33"/>
       <c r="I125" s="21"/>
       <c r="O125" s="21"/>
       <c r="P125" s="21"/>
@@ -4949,7 +4920,7 @@
     <row r="126" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D126" s="21"/>
       <c r="F126" s="21"/>
-      <c r="H126" s="37"/>
+      <c r="H126" s="33"/>
       <c r="I126" s="21"/>
       <c r="O126" s="21"/>
       <c r="P126" s="21"/>
@@ -4958,7 +4929,7 @@
     <row r="127" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D127" s="21"/>
       <c r="F127" s="21"/>
-      <c r="H127" s="37"/>
+      <c r="H127" s="33"/>
       <c r="I127" s="21"/>
       <c r="O127" s="21"/>
       <c r="P127" s="21"/>
@@ -4967,7 +4938,7 @@
     <row r="128" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D128" s="21"/>
       <c r="F128" s="21"/>
-      <c r="H128" s="37"/>
+      <c r="H128" s="33"/>
       <c r="I128" s="21"/>
       <c r="O128" s="21"/>
       <c r="P128" s="21"/>
@@ -4976,7 +4947,7 @@
     <row r="129" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D129" s="21"/>
       <c r="F129" s="21"/>
-      <c r="H129" s="37"/>
+      <c r="H129" s="33"/>
       <c r="I129" s="21"/>
       <c r="O129" s="21"/>
       <c r="P129" s="21"/>
@@ -4985,7 +4956,7 @@
     <row r="130" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D130" s="21"/>
       <c r="F130" s="21"/>
-      <c r="H130" s="37"/>
+      <c r="H130" s="33"/>
       <c r="I130" s="21"/>
       <c r="O130" s="21"/>
       <c r="P130" s="21"/>
@@ -4994,7 +4965,7 @@
     <row r="131" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D131" s="21"/>
       <c r="F131" s="21"/>
-      <c r="H131" s="37"/>
+      <c r="H131" s="33"/>
       <c r="I131" s="21"/>
       <c r="O131" s="21"/>
       <c r="P131" s="21"/>
@@ -5003,7 +4974,7 @@
     <row r="132" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D132" s="21"/>
       <c r="F132" s="21"/>
-      <c r="H132" s="37"/>
+      <c r="H132" s="33"/>
       <c r="I132" s="21"/>
       <c r="O132" s="21"/>
       <c r="P132" s="21"/>
@@ -5012,7 +4983,7 @@
     <row r="133" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D133" s="21"/>
       <c r="F133" s="21"/>
-      <c r="H133" s="37"/>
+      <c r="H133" s="33"/>
       <c r="I133" s="21"/>
       <c r="O133" s="21"/>
       <c r="P133" s="21"/>
@@ -5021,7 +4992,7 @@
     <row r="134" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D134" s="21"/>
       <c r="F134" s="21"/>
-      <c r="H134" s="37"/>
+      <c r="H134" s="33"/>
       <c r="I134" s="21"/>
       <c r="O134" s="21"/>
       <c r="P134" s="21"/>
@@ -5030,7 +5001,7 @@
     <row r="135" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D135" s="21"/>
       <c r="F135" s="21"/>
-      <c r="H135" s="37"/>
+      <c r="H135" s="33"/>
       <c r="I135" s="21"/>
       <c r="O135" s="21"/>
       <c r="P135" s="21"/>
@@ -5039,7 +5010,7 @@
     <row r="136" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D136" s="21"/>
       <c r="F136" s="21"/>
-      <c r="H136" s="37"/>
+      <c r="H136" s="33"/>
       <c r="I136" s="21"/>
       <c r="O136" s="21"/>
       <c r="P136" s="21"/>
@@ -5048,7 +5019,7 @@
     <row r="137" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D137" s="21"/>
       <c r="F137" s="21"/>
-      <c r="H137" s="37"/>
+      <c r="H137" s="33"/>
       <c r="I137" s="21"/>
       <c r="O137" s="21"/>
       <c r="P137" s="21"/>
@@ -5057,7 +5028,7 @@
     <row r="138" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D138" s="21"/>
       <c r="F138" s="21"/>
-      <c r="H138" s="37"/>
+      <c r="H138" s="33"/>
       <c r="I138" s="21"/>
       <c r="O138" s="21"/>
       <c r="P138" s="21"/>
@@ -5066,7 +5037,7 @@
     <row r="139" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D139" s="21"/>
       <c r="F139" s="21"/>
-      <c r="H139" s="37"/>
+      <c r="H139" s="33"/>
       <c r="I139" s="21"/>
       <c r="O139" s="21"/>
       <c r="P139" s="21"/>
@@ -5075,7 +5046,7 @@
     <row r="140" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D140" s="21"/>
       <c r="F140" s="21"/>
-      <c r="H140" s="37"/>
+      <c r="H140" s="33"/>
       <c r="I140" s="21"/>
       <c r="O140" s="21"/>
       <c r="P140" s="21"/>
@@ -5084,7 +5055,7 @@
     <row r="141" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D141" s="21"/>
       <c r="F141" s="21"/>
-      <c r="H141" s="37"/>
+      <c r="H141" s="33"/>
       <c r="I141" s="21"/>
       <c r="O141" s="21"/>
       <c r="P141" s="21"/>
@@ -5093,7 +5064,7 @@
     <row r="142" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D142" s="21"/>
       <c r="F142" s="21"/>
-      <c r="H142" s="37"/>
+      <c r="H142" s="33"/>
       <c r="I142" s="21"/>
       <c r="O142" s="21"/>
       <c r="P142" s="21"/>
@@ -5102,7 +5073,7 @@
     <row r="143" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D143" s="21"/>
       <c r="F143" s="21"/>
-      <c r="H143" s="37"/>
+      <c r="H143" s="33"/>
       <c r="I143" s="21"/>
       <c r="O143" s="21"/>
       <c r="P143" s="21"/>
@@ -5111,7 +5082,7 @@
     <row r="144" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D144" s="21"/>
       <c r="F144" s="21"/>
-      <c r="H144" s="37"/>
+      <c r="H144" s="33"/>
       <c r="I144" s="21"/>
       <c r="O144" s="21"/>
       <c r="P144" s="21"/>
@@ -5120,7 +5091,7 @@
     <row r="145" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D145" s="21"/>
       <c r="F145" s="21"/>
-      <c r="H145" s="37"/>
+      <c r="H145" s="33"/>
       <c r="I145" s="21"/>
       <c r="O145" s="21"/>
       <c r="P145" s="21"/>
@@ -5129,7 +5100,7 @@
     <row r="146" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D146" s="21"/>
       <c r="F146" s="21"/>
-      <c r="H146" s="37"/>
+      <c r="H146" s="33"/>
       <c r="I146" s="21"/>
       <c r="O146" s="21"/>
       <c r="P146" s="21"/>
@@ -5138,7 +5109,7 @@
     <row r="147" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D147" s="21"/>
       <c r="F147" s="21"/>
-      <c r="H147" s="37"/>
+      <c r="H147" s="33"/>
       <c r="I147" s="21"/>
       <c r="O147" s="21"/>
       <c r="P147" s="21"/>
@@ -5147,7 +5118,7 @@
     <row r="148" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D148" s="21"/>
       <c r="F148" s="21"/>
-      <c r="H148" s="37"/>
+      <c r="H148" s="33"/>
       <c r="I148" s="21"/>
       <c r="O148" s="21"/>
       <c r="P148" s="21"/>
@@ -5156,7 +5127,7 @@
     <row r="149" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D149" s="21"/>
       <c r="F149" s="21"/>
-      <c r="H149" s="37"/>
+      <c r="H149" s="33"/>
       <c r="I149" s="21"/>
       <c r="O149" s="21"/>
       <c r="P149" s="21"/>
@@ -5165,7 +5136,7 @@
     <row r="150" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D150" s="21"/>
       <c r="F150" s="21"/>
-      <c r="H150" s="37"/>
+      <c r="H150" s="33"/>
       <c r="I150" s="21"/>
       <c r="O150" s="21"/>
       <c r="P150" s="21"/>
@@ -5174,7 +5145,7 @@
     <row r="151" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D151" s="21"/>
       <c r="F151" s="21"/>
-      <c r="H151" s="37"/>
+      <c r="H151" s="33"/>
       <c r="I151" s="21"/>
       <c r="O151" s="21"/>
       <c r="P151" s="21"/>
@@ -5183,7 +5154,7 @@
     <row r="152" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D152" s="21"/>
       <c r="F152" s="21"/>
-      <c r="H152" s="37"/>
+      <c r="H152" s="33"/>
       <c r="I152" s="21"/>
       <c r="O152" s="21"/>
       <c r="P152" s="21"/>
@@ -5192,7 +5163,7 @@
     <row r="153" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D153" s="21"/>
       <c r="F153" s="21"/>
-      <c r="H153" s="37"/>
+      <c r="H153" s="33"/>
       <c r="I153" s="21"/>
       <c r="O153" s="21"/>
       <c r="P153" s="21"/>
@@ -5201,7 +5172,7 @@
     <row r="154" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D154" s="21"/>
       <c r="F154" s="21"/>
-      <c r="H154" s="37"/>
+      <c r="H154" s="33"/>
       <c r="I154" s="21"/>
       <c r="O154" s="21"/>
       <c r="P154" s="21"/>
@@ -5210,7 +5181,7 @@
     <row r="155" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D155" s="21"/>
       <c r="F155" s="21"/>
-      <c r="H155" s="37"/>
+      <c r="H155" s="33"/>
       <c r="I155" s="21"/>
       <c r="O155" s="21"/>
       <c r="P155" s="21"/>
@@ -5219,7 +5190,7 @@
     <row r="156" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D156" s="21"/>
       <c r="F156" s="21"/>
-      <c r="H156" s="37"/>
+      <c r="H156" s="33"/>
       <c r="I156" s="21"/>
       <c r="O156" s="21"/>
       <c r="P156" s="21"/>
@@ -5228,7 +5199,7 @@
     <row r="157" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D157" s="21"/>
       <c r="F157" s="21"/>
-      <c r="H157" s="37"/>
+      <c r="H157" s="33"/>
       <c r="I157" s="21"/>
       <c r="O157" s="21"/>
       <c r="P157" s="21"/>
@@ -5237,7 +5208,7 @@
     <row r="158" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D158" s="21"/>
       <c r="F158" s="21"/>
-      <c r="H158" s="37"/>
+      <c r="H158" s="33"/>
       <c r="I158" s="21"/>
       <c r="O158" s="21"/>
       <c r="P158" s="21"/>
@@ -5246,7 +5217,7 @@
     <row r="159" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D159" s="21"/>
       <c r="F159" s="21"/>
-      <c r="H159" s="37"/>
+      <c r="H159" s="33"/>
       <c r="I159" s="21"/>
       <c r="O159" s="21"/>
       <c r="P159" s="21"/>
@@ -5255,7 +5226,7 @@
     <row r="160" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D160" s="21"/>
       <c r="F160" s="21"/>
-      <c r="H160" s="37"/>
+      <c r="H160" s="33"/>
       <c r="I160" s="21"/>
       <c r="O160" s="21"/>
       <c r="P160" s="21"/>
@@ -5264,7 +5235,7 @@
     <row r="161" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D161" s="21"/>
       <c r="F161" s="21"/>
-      <c r="H161" s="37"/>
+      <c r="H161" s="33"/>
       <c r="I161" s="21"/>
       <c r="O161" s="21"/>
       <c r="P161" s="21"/>
@@ -5273,7 +5244,7 @@
     <row r="162" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D162" s="21"/>
       <c r="F162" s="21"/>
-      <c r="H162" s="37"/>
+      <c r="H162" s="33"/>
       <c r="I162" s="21"/>
       <c r="O162" s="21"/>
       <c r="P162" s="21"/>
@@ -5282,7 +5253,7 @@
     <row r="163" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D163" s="21"/>
       <c r="F163" s="21"/>
-      <c r="H163" s="37"/>
+      <c r="H163" s="33"/>
       <c r="I163" s="21"/>
       <c r="O163" s="21"/>
       <c r="P163" s="21"/>
@@ -5291,7 +5262,7 @@
     <row r="164" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D164" s="21"/>
       <c r="F164" s="21"/>
-      <c r="H164" s="37"/>
+      <c r="H164" s="33"/>
       <c r="I164" s="21"/>
       <c r="O164" s="21"/>
       <c r="P164" s="21"/>
@@ -5300,7 +5271,7 @@
     <row r="165" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D165" s="21"/>
       <c r="F165" s="21"/>
-      <c r="H165" s="37"/>
+      <c r="H165" s="33"/>
       <c r="I165" s="21"/>
       <c r="O165" s="21"/>
       <c r="P165" s="21"/>
@@ -5309,7 +5280,7 @@
     <row r="166" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D166" s="21"/>
       <c r="F166" s="21"/>
-      <c r="H166" s="37"/>
+      <c r="H166" s="33"/>
       <c r="I166" s="21"/>
       <c r="O166" s="21"/>
       <c r="P166" s="21"/>
@@ -5318,7 +5289,7 @@
     <row r="167" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D167" s="21"/>
       <c r="F167" s="21"/>
-      <c r="H167" s="37"/>
+      <c r="H167" s="33"/>
       <c r="I167" s="21"/>
       <c r="O167" s="21"/>
       <c r="P167" s="21"/>
@@ -5327,7 +5298,7 @@
     <row r="168" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D168" s="21"/>
       <c r="F168" s="21"/>
-      <c r="H168" s="37"/>
+      <c r="H168" s="33"/>
       <c r="I168" s="21"/>
       <c r="O168" s="21"/>
       <c r="P168" s="21"/>
@@ -5336,7 +5307,7 @@
     <row r="169" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D169" s="21"/>
       <c r="F169" s="21"/>
-      <c r="H169" s="37"/>
+      <c r="H169" s="33"/>
       <c r="I169" s="21"/>
       <c r="O169" s="21"/>
       <c r="P169" s="21"/>
@@ -5345,7 +5316,7 @@
     <row r="170" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D170" s="21"/>
       <c r="F170" s="21"/>
-      <c r="H170" s="37"/>
+      <c r="H170" s="33"/>
       <c r="I170" s="21"/>
       <c r="O170" s="21"/>
       <c r="P170" s="21"/>
@@ -5354,7 +5325,7 @@
     <row r="171" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D171" s="21"/>
       <c r="F171" s="21"/>
-      <c r="H171" s="37"/>
+      <c r="H171" s="33"/>
       <c r="I171" s="21"/>
       <c r="O171" s="21"/>
       <c r="P171" s="21"/>
@@ -5363,7 +5334,7 @@
     <row r="172" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D172" s="21"/>
       <c r="F172" s="21"/>
-      <c r="H172" s="37"/>
+      <c r="H172" s="33"/>
       <c r="I172" s="21"/>
       <c r="O172" s="21"/>
       <c r="P172" s="21"/>
@@ -5372,7 +5343,7 @@
     <row r="173" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D173" s="21"/>
       <c r="F173" s="21"/>
-      <c r="H173" s="37"/>
+      <c r="H173" s="33"/>
       <c r="I173" s="21"/>
       <c r="O173" s="21"/>
       <c r="P173" s="21"/>
@@ -5381,7 +5352,7 @@
     <row r="174" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D174" s="21"/>
       <c r="F174" s="21"/>
-      <c r="H174" s="37"/>
+      <c r="H174" s="33"/>
       <c r="I174" s="21"/>
       <c r="O174" s="21"/>
       <c r="P174" s="21"/>
@@ -5390,7 +5361,7 @@
     <row r="175" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D175" s="21"/>
       <c r="F175" s="21"/>
-      <c r="H175" s="37"/>
+      <c r="H175" s="33"/>
       <c r="I175" s="21"/>
       <c r="O175" s="21"/>
       <c r="P175" s="21"/>
@@ -5399,7 +5370,7 @@
     <row r="176" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D176" s="21"/>
       <c r="F176" s="21"/>
-      <c r="H176" s="37"/>
+      <c r="H176" s="33"/>
       <c r="I176" s="21"/>
       <c r="O176" s="21"/>
       <c r="P176" s="21"/>
@@ -5408,7 +5379,7 @@
     <row r="177" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D177" s="21"/>
       <c r="F177" s="21"/>
-      <c r="H177" s="37"/>
+      <c r="H177" s="33"/>
       <c r="I177" s="21"/>
       <c r="O177" s="21"/>
       <c r="P177" s="21"/>
@@ -5417,7 +5388,7 @@
     <row r="178" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D178" s="21"/>
       <c r="F178" s="21"/>
-      <c r="H178" s="37"/>
+      <c r="H178" s="33"/>
       <c r="I178" s="21"/>
       <c r="O178" s="21"/>
       <c r="P178" s="21"/>
@@ -5426,7 +5397,7 @@
     <row r="179" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D179" s="21"/>
       <c r="F179" s="21"/>
-      <c r="H179" s="37"/>
+      <c r="H179" s="33"/>
       <c r="I179" s="21"/>
       <c r="O179" s="21"/>
       <c r="P179" s="21"/>
@@ -5435,7 +5406,7 @@
     <row r="180" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D180" s="21"/>
       <c r="F180" s="21"/>
-      <c r="H180" s="37"/>
+      <c r="H180" s="33"/>
       <c r="I180" s="21"/>
       <c r="O180" s="21"/>
       <c r="P180" s="21"/>
@@ -5444,7 +5415,7 @@
     <row r="181" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D181" s="21"/>
       <c r="F181" s="21"/>
-      <c r="H181" s="37"/>
+      <c r="H181" s="33"/>
       <c r="I181" s="21"/>
       <c r="O181" s="21"/>
       <c r="P181" s="21"/>
@@ -5453,7 +5424,7 @@
     <row r="182" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D182" s="21"/>
       <c r="F182" s="21"/>
-      <c r="H182" s="37"/>
+      <c r="H182" s="33"/>
       <c r="I182" s="21"/>
       <c r="O182" s="21"/>
       <c r="P182" s="21"/>
@@ -5462,7 +5433,7 @@
     <row r="183" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D183" s="21"/>
       <c r="F183" s="21"/>
-      <c r="H183" s="37"/>
+      <c r="H183" s="33"/>
       <c r="I183" s="21"/>
       <c r="O183" s="21"/>
       <c r="P183" s="21"/>
@@ -5471,7 +5442,7 @@
     <row r="184" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D184" s="21"/>
       <c r="F184" s="21"/>
-      <c r="H184" s="37"/>
+      <c r="H184" s="33"/>
       <c r="I184" s="21"/>
       <c r="O184" s="21"/>
       <c r="P184" s="21"/>
@@ -5480,7 +5451,7 @@
     <row r="185" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D185" s="21"/>
       <c r="F185" s="21"/>
-      <c r="H185" s="37"/>
+      <c r="H185" s="33"/>
       <c r="I185" s="21"/>
       <c r="O185" s="21"/>
       <c r="P185" s="21"/>
@@ -5489,7 +5460,7 @@
     <row r="186" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D186" s="21"/>
       <c r="F186" s="21"/>
-      <c r="H186" s="37"/>
+      <c r="H186" s="33"/>
       <c r="I186" s="21"/>
       <c r="O186" s="21"/>
       <c r="P186" s="21"/>
@@ -5498,7 +5469,7 @@
     <row r="187" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D187" s="21"/>
       <c r="F187" s="21"/>
-      <c r="H187" s="37"/>
+      <c r="H187" s="33"/>
       <c r="I187" s="21"/>
       <c r="O187" s="21"/>
       <c r="P187" s="21"/>
@@ -5507,7 +5478,7 @@
     <row r="188" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D188" s="21"/>
       <c r="F188" s="21"/>
-      <c r="H188" s="37"/>
+      <c r="H188" s="33"/>
       <c r="I188" s="21"/>
       <c r="O188" s="21"/>
       <c r="P188" s="21"/>
@@ -5516,7 +5487,7 @@
     <row r="189" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D189" s="21"/>
       <c r="F189" s="21"/>
-      <c r="H189" s="37"/>
+      <c r="H189" s="33"/>
       <c r="I189" s="21"/>
       <c r="O189" s="21"/>
       <c r="P189" s="21"/>
@@ -5525,7 +5496,7 @@
     <row r="190" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D190" s="21"/>
       <c r="F190" s="21"/>
-      <c r="H190" s="37"/>
+      <c r="H190" s="33"/>
       <c r="I190" s="21"/>
       <c r="O190" s="21"/>
       <c r="P190" s="21"/>
@@ -5534,7 +5505,7 @@
     <row r="191" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D191" s="21"/>
       <c r="F191" s="21"/>
-      <c r="H191" s="37"/>
+      <c r="H191" s="33"/>
       <c r="I191" s="21"/>
       <c r="O191" s="21"/>
       <c r="P191" s="21"/>
@@ -5543,7 +5514,7 @@
     <row r="192" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D192" s="21"/>
       <c r="F192" s="21"/>
-      <c r="H192" s="37"/>
+      <c r="H192" s="33"/>
       <c r="I192" s="21"/>
       <c r="O192" s="21"/>
       <c r="P192" s="21"/>
@@ -5552,7 +5523,7 @@
     <row r="193" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D193" s="21"/>
       <c r="F193" s="21"/>
-      <c r="H193" s="37"/>
+      <c r="H193" s="33"/>
       <c r="I193" s="21"/>
       <c r="O193" s="21"/>
       <c r="P193" s="21"/>
@@ -5561,7 +5532,7 @@
     <row r="194" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D194" s="21"/>
       <c r="F194" s="21"/>
-      <c r="H194" s="37"/>
+      <c r="H194" s="33"/>
       <c r="I194" s="21"/>
       <c r="O194" s="21"/>
       <c r="P194" s="21"/>
@@ -5570,7 +5541,7 @@
     <row r="195" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D195" s="21"/>
       <c r="F195" s="21"/>
-      <c r="H195" s="37"/>
+      <c r="H195" s="33"/>
       <c r="I195" s="21"/>
       <c r="O195" s="21"/>
       <c r="P195" s="21"/>
@@ -5579,7 +5550,7 @@
     <row r="196" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D196" s="21"/>
       <c r="F196" s="21"/>
-      <c r="H196" s="37"/>
+      <c r="H196" s="33"/>
       <c r="I196" s="21"/>
       <c r="O196" s="21"/>
       <c r="P196" s="21"/>
@@ -5588,7 +5559,7 @@
     <row r="197" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D197" s="21"/>
       <c r="F197" s="21"/>
-      <c r="H197" s="37"/>
+      <c r="H197" s="33"/>
       <c r="I197" s="21"/>
       <c r="O197" s="21"/>
       <c r="P197" s="21"/>
@@ -5597,7 +5568,7 @@
     <row r="198" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D198" s="21"/>
       <c r="F198" s="21"/>
-      <c r="H198" s="37"/>
+      <c r="H198" s="33"/>
       <c r="I198" s="21"/>
       <c r="O198" s="21"/>
       <c r="P198" s="21"/>
@@ -5606,7 +5577,7 @@
     <row r="199" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D199" s="21"/>
       <c r="F199" s="21"/>
-      <c r="H199" s="37"/>
+      <c r="H199" s="33"/>
       <c r="I199" s="21"/>
       <c r="O199" s="21"/>
       <c r="P199" s="21"/>
@@ -5615,7 +5586,7 @@
     <row r="200" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D200" s="21"/>
       <c r="F200" s="21"/>
-      <c r="H200" s="37"/>
+      <c r="H200" s="33"/>
       <c r="I200" s="21"/>
       <c r="O200" s="21"/>
       <c r="P200" s="21"/>
@@ -5624,7 +5595,7 @@
     <row r="201" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D201" s="21"/>
       <c r="F201" s="21"/>
-      <c r="H201" s="37"/>
+      <c r="H201" s="33"/>
       <c r="I201" s="21"/>
       <c r="O201" s="21"/>
       <c r="P201" s="21"/>
@@ -5633,7 +5604,7 @@
     <row r="202" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D202" s="21"/>
       <c r="F202" s="21"/>
-      <c r="H202" s="37"/>
+      <c r="H202" s="33"/>
       <c r="I202" s="21"/>
       <c r="O202" s="21"/>
       <c r="P202" s="21"/>
@@ -5642,7 +5613,7 @@
     <row r="203" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D203" s="21"/>
       <c r="F203" s="21"/>
-      <c r="H203" s="37"/>
+      <c r="H203" s="33"/>
       <c r="I203" s="21"/>
       <c r="O203" s="21"/>
       <c r="P203" s="21"/>
@@ -5651,7 +5622,7 @@
     <row r="204" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D204" s="21"/>
       <c r="F204" s="21"/>
-      <c r="H204" s="37"/>
+      <c r="H204" s="33"/>
       <c r="I204" s="21"/>
       <c r="O204" s="21"/>
       <c r="P204" s="21"/>
@@ -5660,7 +5631,7 @@
     <row r="205" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D205" s="21"/>
       <c r="F205" s="21"/>
-      <c r="H205" s="37"/>
+      <c r="H205" s="33"/>
       <c r="I205" s="21"/>
       <c r="O205" s="21"/>
       <c r="P205" s="21"/>
@@ -5669,7 +5640,7 @@
     <row r="206" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D206" s="21"/>
       <c r="F206" s="21"/>
-      <c r="H206" s="37"/>
+      <c r="H206" s="33"/>
       <c r="I206" s="21"/>
       <c r="O206" s="21"/>
       <c r="P206" s="21"/>
@@ -5678,7 +5649,7 @@
     <row r="207" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D207" s="21"/>
       <c r="F207" s="21"/>
-      <c r="H207" s="37"/>
+      <c r="H207" s="33"/>
       <c r="I207" s="21"/>
       <c r="O207" s="21"/>
       <c r="P207" s="21"/>
@@ -5687,7 +5658,7 @@
     <row r="208" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D208" s="21"/>
       <c r="F208" s="21"/>
-      <c r="H208" s="37"/>
+      <c r="H208" s="33"/>
       <c r="I208" s="21"/>
       <c r="O208" s="21"/>
       <c r="P208" s="21"/>
@@ -5696,7 +5667,7 @@
     <row r="209" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D209" s="21"/>
       <c r="F209" s="21"/>
-      <c r="H209" s="37"/>
+      <c r="H209" s="33"/>
       <c r="I209" s="21"/>
       <c r="O209" s="21"/>
       <c r="P209" s="21"/>
@@ -5705,7 +5676,7 @@
     <row r="210" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D210" s="21"/>
       <c r="F210" s="21"/>
-      <c r="H210" s="37"/>
+      <c r="H210" s="33"/>
       <c r="I210" s="21"/>
       <c r="O210" s="21"/>
       <c r="P210" s="21"/>
@@ -5714,7 +5685,7 @@
     <row r="211" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D211" s="21"/>
       <c r="F211" s="21"/>
-      <c r="H211" s="37"/>
+      <c r="H211" s="33"/>
       <c r="I211" s="21"/>
       <c r="O211" s="21"/>
       <c r="P211" s="21"/>
@@ -5723,7 +5694,7 @@
     <row r="212" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D212" s="21"/>
       <c r="F212" s="21"/>
-      <c r="H212" s="37"/>
+      <c r="H212" s="33"/>
       <c r="I212" s="21"/>
       <c r="O212" s="21"/>
       <c r="P212" s="21"/>
@@ -5732,7 +5703,7 @@
     <row r="213" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D213" s="21"/>
       <c r="F213" s="21"/>
-      <c r="H213" s="37"/>
+      <c r="H213" s="33"/>
       <c r="I213" s="21"/>
       <c r="O213" s="21"/>
       <c r="P213" s="21"/>
@@ -5741,7 +5712,7 @@
     <row r="214" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D214" s="21"/>
       <c r="F214" s="21"/>
-      <c r="H214" s="37"/>
+      <c r="H214" s="33"/>
       <c r="I214" s="21"/>
       <c r="O214" s="21"/>
       <c r="P214" s="21"/>
@@ -5750,7 +5721,7 @@
     <row r="215" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D215" s="21"/>
       <c r="F215" s="21"/>
-      <c r="H215" s="37"/>
+      <c r="H215" s="33"/>
       <c r="I215" s="21"/>
       <c r="O215" s="21"/>
       <c r="P215" s="21"/>
@@ -5759,7 +5730,7 @@
     <row r="216" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D216" s="21"/>
       <c r="F216" s="21"/>
-      <c r="H216" s="37"/>
+      <c r="H216" s="33"/>
       <c r="I216" s="21"/>
       <c r="O216" s="21"/>
       <c r="P216" s="21"/>
@@ -5768,7 +5739,7 @@
     <row r="217" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D217" s="21"/>
       <c r="F217" s="21"/>
-      <c r="H217" s="37"/>
+      <c r="H217" s="33"/>
       <c r="I217" s="21"/>
       <c r="O217" s="21"/>
       <c r="P217" s="21"/>
@@ -5777,7 +5748,7 @@
     <row r="218" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D218" s="21"/>
       <c r="F218" s="21"/>
-      <c r="H218" s="37"/>
+      <c r="H218" s="33"/>
       <c r="I218" s="21"/>
       <c r="O218" s="21"/>
       <c r="P218" s="21"/>
@@ -5786,7 +5757,7 @@
     <row r="219" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D219" s="21"/>
       <c r="F219" s="21"/>
-      <c r="H219" s="37"/>
+      <c r="H219" s="33"/>
       <c r="I219" s="21"/>
       <c r="O219" s="21"/>
       <c r="P219" s="21"/>
@@ -5795,7 +5766,7 @@
     <row r="220" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D220" s="21"/>
       <c r="F220" s="21"/>
-      <c r="H220" s="37"/>
+      <c r="H220" s="33"/>
       <c r="I220" s="21"/>
       <c r="O220" s="21"/>
       <c r="P220" s="21"/>
@@ -5804,7 +5775,7 @@
     <row r="221" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D221" s="21"/>
       <c r="F221" s="21"/>
-      <c r="H221" s="37"/>
+      <c r="H221" s="33"/>
       <c r="I221" s="21"/>
       <c r="O221" s="21"/>
       <c r="P221" s="21"/>
@@ -5813,7 +5784,7 @@
     <row r="222" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D222" s="21"/>
       <c r="F222" s="21"/>
-      <c r="H222" s="37"/>
+      <c r="H222" s="33"/>
       <c r="I222" s="21"/>
       <c r="O222" s="21"/>
       <c r="P222" s="21"/>
@@ -5822,7 +5793,7 @@
     <row r="223" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D223" s="21"/>
       <c r="F223" s="21"/>
-      <c r="H223" s="37"/>
+      <c r="H223" s="33"/>
       <c r="I223" s="21"/>
       <c r="O223" s="21"/>
       <c r="P223" s="21"/>
@@ -5831,7 +5802,7 @@
     <row r="224" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D224" s="21"/>
       <c r="F224" s="21"/>
-      <c r="H224" s="37"/>
+      <c r="H224" s="33"/>
       <c r="I224" s="21"/>
       <c r="O224" s="21"/>
       <c r="P224" s="21"/>
@@ -5840,7 +5811,7 @@
     <row r="225" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D225" s="21"/>
       <c r="F225" s="21"/>
-      <c r="H225" s="37"/>
+      <c r="H225" s="33"/>
       <c r="I225" s="21"/>
       <c r="O225" s="21"/>
       <c r="P225" s="21"/>
@@ -5849,7 +5820,7 @@
     <row r="226" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D226" s="21"/>
       <c r="F226" s="21"/>
-      <c r="H226" s="37"/>
+      <c r="H226" s="33"/>
       <c r="I226" s="21"/>
       <c r="O226" s="21"/>
       <c r="P226" s="21"/>
@@ -5858,7 +5829,7 @@
     <row r="227" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D227" s="21"/>
       <c r="F227" s="21"/>
-      <c r="H227" s="37"/>
+      <c r="H227" s="33"/>
       <c r="I227" s="21"/>
       <c r="O227" s="21"/>
       <c r="P227" s="21"/>
@@ -5867,7 +5838,7 @@
     <row r="228" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D228" s="21"/>
       <c r="F228" s="21"/>
-      <c r="H228" s="37"/>
+      <c r="H228" s="33"/>
       <c r="I228" s="21"/>
       <c r="O228" s="21"/>
       <c r="P228" s="21"/>
@@ -5876,7 +5847,7 @@
     <row r="229" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D229" s="21"/>
       <c r="F229" s="21"/>
-      <c r="H229" s="37"/>
+      <c r="H229" s="33"/>
       <c r="I229" s="21"/>
       <c r="O229" s="21"/>
       <c r="P229" s="21"/>
@@ -5885,7 +5856,7 @@
     <row r="230" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D230" s="21"/>
       <c r="F230" s="21"/>
-      <c r="H230" s="37"/>
+      <c r="H230" s="33"/>
       <c r="I230" s="21"/>
       <c r="O230" s="21"/>
       <c r="P230" s="21"/>
@@ -5894,7 +5865,7 @@
     <row r="231" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D231" s="21"/>
       <c r="F231" s="21"/>
-      <c r="H231" s="37"/>
+      <c r="H231" s="33"/>
       <c r="I231" s="21"/>
       <c r="O231" s="21"/>
       <c r="P231" s="21"/>
@@ -5903,7 +5874,7 @@
     <row r="232" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D232" s="21"/>
       <c r="F232" s="21"/>
-      <c r="H232" s="37"/>
+      <c r="H232" s="33"/>
       <c r="I232" s="21"/>
       <c r="O232" s="21"/>
       <c r="P232" s="21"/>
@@ -5912,7 +5883,7 @@
     <row r="233" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D233" s="21"/>
       <c r="F233" s="21"/>
-      <c r="H233" s="37"/>
+      <c r="H233" s="33"/>
       <c r="I233" s="21"/>
       <c r="O233" s="21"/>
       <c r="P233" s="21"/>
@@ -5921,7 +5892,7 @@
     <row r="234" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D234" s="21"/>
       <c r="F234" s="21"/>
-      <c r="H234" s="37"/>
+      <c r="H234" s="33"/>
       <c r="I234" s="21"/>
       <c r="O234" s="21"/>
       <c r="P234" s="21"/>
@@ -5930,7 +5901,7 @@
     <row r="235" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D235" s="21"/>
       <c r="F235" s="21"/>
-      <c r="H235" s="37"/>
+      <c r="H235" s="33"/>
       <c r="I235" s="21"/>
       <c r="O235" s="21"/>
       <c r="P235" s="21"/>
@@ -5939,7 +5910,7 @@
     <row r="236" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D236" s="21"/>
       <c r="F236" s="21"/>
-      <c r="H236" s="37"/>
+      <c r="H236" s="33"/>
       <c r="I236" s="21"/>
       <c r="O236" s="21"/>
       <c r="P236" s="21"/>
@@ -5948,7 +5919,7 @@
     <row r="237" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D237" s="21"/>
       <c r="F237" s="21"/>
-      <c r="H237" s="37"/>
+      <c r="H237" s="33"/>
       <c r="I237" s="21"/>
       <c r="O237" s="21"/>
       <c r="P237" s="21"/>
@@ -5957,7 +5928,7 @@
     <row r="238" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D238" s="21"/>
       <c r="F238" s="21"/>
-      <c r="H238" s="37"/>
+      <c r="H238" s="33"/>
       <c r="I238" s="21"/>
       <c r="O238" s="21"/>
       <c r="P238" s="21"/>
@@ -5966,7 +5937,7 @@
     <row r="239" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D239" s="21"/>
       <c r="F239" s="21"/>
-      <c r="H239" s="37"/>
+      <c r="H239" s="33"/>
       <c r="I239" s="21"/>
       <c r="O239" s="21"/>
       <c r="P239" s="21"/>
@@ -5975,7 +5946,7 @@
     <row r="240" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D240" s="21"/>
       <c r="F240" s="21"/>
-      <c r="H240" s="37"/>
+      <c r="H240" s="33"/>
       <c r="I240" s="21"/>
       <c r="O240" s="21"/>
       <c r="P240" s="21"/>
@@ -5984,7 +5955,7 @@
     <row r="241" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D241" s="21"/>
       <c r="F241" s="21"/>
-      <c r="H241" s="37"/>
+      <c r="H241" s="33"/>
       <c r="I241" s="21"/>
       <c r="O241" s="21"/>
       <c r="P241" s="21"/>
@@ -5993,7 +5964,7 @@
     <row r="242" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D242" s="21"/>
       <c r="F242" s="21"/>
-      <c r="H242" s="37"/>
+      <c r="H242" s="33"/>
       <c r="I242" s="21"/>
       <c r="O242" s="21"/>
       <c r="P242" s="21"/>
@@ -6002,7 +5973,7 @@
     <row r="243" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D243" s="21"/>
       <c r="F243" s="21"/>
-      <c r="H243" s="37"/>
+      <c r="H243" s="33"/>
       <c r="I243" s="21"/>
       <c r="O243" s="21"/>
       <c r="P243" s="21"/>
@@ -6011,7 +5982,7 @@
     <row r="244" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D244" s="21"/>
       <c r="F244" s="21"/>
-      <c r="H244" s="37"/>
+      <c r="H244" s="33"/>
       <c r="I244" s="21"/>
       <c r="O244" s="21"/>
       <c r="P244" s="21"/>
@@ -6020,7 +5991,7 @@
     <row r="245" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D245" s="21"/>
       <c r="F245" s="21"/>
-      <c r="H245" s="37"/>
+      <c r="H245" s="33"/>
       <c r="I245" s="21"/>
       <c r="O245" s="21"/>
       <c r="P245" s="21"/>
@@ -6029,7 +6000,7 @@
     <row r="246" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D246" s="21"/>
       <c r="F246" s="21"/>
-      <c r="H246" s="37"/>
+      <c r="H246" s="33"/>
       <c r="I246" s="21"/>
       <c r="O246" s="21"/>
       <c r="P246" s="21"/>
@@ -6038,7 +6009,7 @@
     <row r="247" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D247" s="21"/>
       <c r="F247" s="21"/>
-      <c r="H247" s="37"/>
+      <c r="H247" s="33"/>
       <c r="I247" s="21"/>
       <c r="O247" s="21"/>
       <c r="P247" s="21"/>
@@ -6047,7 +6018,7 @@
     <row r="248" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D248" s="21"/>
       <c r="F248" s="21"/>
-      <c r="H248" s="37"/>
+      <c r="H248" s="33"/>
       <c r="I248" s="21"/>
       <c r="O248" s="21"/>
       <c r="P248" s="21"/>
@@ -6056,7 +6027,7 @@
     <row r="249" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D249" s="21"/>
       <c r="F249" s="21"/>
-      <c r="H249" s="37"/>
+      <c r="H249" s="33"/>
       <c r="I249" s="21"/>
       <c r="O249" s="21"/>
       <c r="P249" s="21"/>
@@ -6065,7 +6036,7 @@
     <row r="250" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D250" s="21"/>
       <c r="F250" s="21"/>
-      <c r="H250" s="37"/>
+      <c r="H250" s="33"/>
       <c r="I250" s="21"/>
       <c r="O250" s="21"/>
       <c r="P250" s="21"/>
@@ -6074,7 +6045,7 @@
     <row r="251" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D251" s="21"/>
       <c r="F251" s="21"/>
-      <c r="H251" s="37"/>
+      <c r="H251" s="33"/>
       <c r="I251" s="21"/>
       <c r="O251" s="21"/>
       <c r="P251" s="21"/>
@@ -6083,7 +6054,7 @@
     <row r="252" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D252" s="21"/>
       <c r="F252" s="21"/>
-      <c r="H252" s="37"/>
+      <c r="H252" s="33"/>
       <c r="I252" s="21"/>
       <c r="O252" s="21"/>
       <c r="P252" s="21"/>
@@ -6092,7 +6063,7 @@
     <row r="253" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D253" s="21"/>
       <c r="F253" s="21"/>
-      <c r="H253" s="37"/>
+      <c r="H253" s="33"/>
       <c r="I253" s="21"/>
       <c r="O253" s="21"/>
       <c r="P253" s="21"/>
@@ -6101,7 +6072,7 @@
     <row r="254" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D254" s="21"/>
       <c r="F254" s="21"/>
-      <c r="H254" s="37"/>
+      <c r="H254" s="33"/>
       <c r="I254" s="21"/>
       <c r="O254" s="21"/>
       <c r="P254" s="21"/>
@@ -6110,7 +6081,7 @@
     <row r="255" spans="4:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="D255" s="21"/>
       <c r="F255" s="21"/>
-      <c r="H255" s="37"/>
+      <c r="H255" s="33"/>
       <c r="I255" s="21"/>
       <c r="O255" s="21"/>
       <c r="P255" s="21"/>
@@ -6130,6 +6101,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -6144,12 +6121,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
